--- a/20_営業/10_マスタ/TE030/T_TE030_CMM_002_A13_02_ロール割当マスタ(参照表)連携_OIC統合.xlsx
+++ b/20_営業/10_マスタ/TE030/T_TE030_CMM_002_A13_02_ロール割当マスタ(参照表)連携_OIC統合.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\itoenfile\system\30.SCSK\89_SaaS対応\20_ERPCloud導入\20_実装フェーズ\10_成果物\16_単体テスト実施\外部結合完了時\OIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\acomsv01\障害対応\E_本稼動_19901～20000\E_本稼動_19992【共通】OIC3アップグレード対応\20_成果物\TE030\無影響確認\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7200" windowWidth="23040" windowHeight="8940"/>
+    <workbookView xWindow="0" yWindow="7800" windowWidth="23040" windowHeight="8940"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -28,8 +28,9 @@
     <sheet name="テスト仕様_テスト結果(テスト・シナリオ9)" sheetId="17" r:id="rId14"/>
     <sheet name="テスト仕様_テスト結果(テスト・シナリオ10)" sheetId="18" r:id="rId15"/>
     <sheet name="テスト仕様_テスト結果(テスト・シナリオ11)" sheetId="19" r:id="rId16"/>
-    <sheet name="不具合ログ" sheetId="7" r:id="rId17"/>
-    <sheet name="未完了の課題と完了済みの課題" sheetId="8" r:id="rId18"/>
+    <sheet name="テスト仕様_テスト結果(テスト・シナリオ12)" sheetId="20" r:id="rId17"/>
+    <sheet name="不具合ログ" sheetId="7" r:id="rId18"/>
+    <sheet name="未完了の課題と完了済みの課題" sheetId="8" r:id="rId19"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">テスト・シナリオ一覧!$A$1:$F$21</definedName>
@@ -37,6 +38,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="5">'テスト仕様_テスト結果(テスト・シナリオ1)'!$A$1:$I$48</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="14">'テスト仕様_テスト結果(テスト・シナリオ10)'!$A$1:$I$45</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="15">'テスト仕様_テスト結果(テスト・シナリオ11)'!$A$1:$I$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="16">'テスト仕様_テスト結果(テスト・シナリオ12)'!$A$1:$I$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'テスト仕様_テスト結果(テスト・シナリオ2)'!$A$1:$I$51</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'テスト仕様_テスト結果(テスト・シナリオ3) '!$A$1:$I$45</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'テスト仕様_テスト結果(テスト・シナリオ4)'!$A$1:$I$47</definedName>
@@ -47,9 +49,9 @@
     <definedName name="_xlnm.Print_Area" localSheetId="13">'テスト仕様_テスト結果(テスト・シナリオ9)'!$A$1:$I$48</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">作成上の注意点!$A$1:$M$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$H$29</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">文書管理!$A$1:$I$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">文書管理!$A$1:$I$16</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -59,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="255">
   <si>
     <t>株式会社伊藤園</t>
     <phoneticPr fontId="5"/>
@@ -1995,17 +1997,219 @@
   <si>
     <t>Issue化</t>
   </si>
+  <si>
+    <t>Issue1.1</t>
+  </si>
+  <si>
+    <t>Issue1.1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SCSK 佐藤勇樹</t>
+    <rPh sb="5" eb="9">
+      <t>サトウユウキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>シナリオ12</t>
+  </si>
+  <si>
+    <t>OIC3アップグレード 無影響確認テスト(DBへのCUID・共通処理動作確認)</t>
+  </si>
+  <si>
+    <t>正常終了する。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>左記の通り</t>
+    <rPh sb="0" eb="2">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>佐藤</t>
+    <rPh sb="0" eb="2">
+      <t>サトウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>①、②左記の通り</t>
+    <rPh sb="3" eb="5">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCCD002(プロファイル値参照)
+・今回処理実行日時取得</t>
+    <rPh sb="21" eb="23">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCCD001(プロファイル値更新)
+・前回処理実行日時更新</t>
+    <rPh sb="21" eb="23">
+      <t>ゼンカイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テスト・シナリオ12</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>12-1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>12-2</t>
+  </si>
+  <si>
+    <t>12-3</t>
+  </si>
+  <si>
+    <t>12-4</t>
+  </si>
+  <si>
+    <t>XXCMM002A13_02を実行する。
+OIC3アップグレードの影響でDBへのCUIDを実行するアクティビティまたは共通関数を呼び出すアクティビティの実行に影響が出ていないことを確認する。</t>
+    <rPh sb="15" eb="17">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>エイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCMM002A13_02(ロール割当マスタ(参照表)連携)</t>
+    <rPh sb="18" eb="20">
+      <t>ワリアテ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>レンケイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCMM002A13_02からロール割当マスタ更新処理が実行され、正常終了する。</t>
+    <rPh sb="19" eb="21">
+      <t>ワリアテ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="34" eb="38">
+      <t>セイジョウシュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCMM002A13_02から共通処理XXCCD002が実行され、正常終了する。</t>
+    <rPh sb="16" eb="20">
+      <t>キョウツウショリ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>①XXCMM002A13_02から共通処理XXCCD001が実行され、正常終了する。
+②プロファイルオプション値テーブルが更新される。</t>
+    <rPh sb="17" eb="21">
+      <t>キョウツウショリ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>T_TE030_CMM_002_A13_02_ロール割当マスタ(参照表)連携_OIC統合_エビデンス(シナリオ12).xlsx</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>{
+  "processId": 2320978
+}</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ロール割当マスタ更新
+</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>E_本稼働_19992 OICアップグレード対応 無影響確認</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="177" formatCode="mmm\ dd\ yyyy"/>
     <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2214,6 +2418,21 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF00FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF00FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -2264,7 +2483,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="52">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -2917,6 +3136,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2930,7 +3160,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3159,9 +3389,6 @@
     <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3307,6 +3534,24 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="29" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3351,6 +3596,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF99CC"/>
       <color rgb="FF0000FF"/>
       <color rgb="FFC0C0C0"/>
     </mruColors>
@@ -5813,6 +6059,731 @@
         <a:xfrm>
           <a:off x="28575" y="30184725"/>
           <a:ext cx="3400425" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 他に添付するエビデンスなどがあれば</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>         記述します。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1171575</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="251460" y="30358080"/>
+          <a:ext cx="6939915" cy="2606040"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>【TE.020作成時の注意点】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: テスト・シナリオ毎のテスト・ステップを記載して下さい。コンカレント・プログラムの場合は各プロセスの内部処理、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>        画面の場合は各機能の内部処理で、結果が分岐しうる処理を網羅するようにして下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 「テスト内容」には、テスト・ステップ毎のテスト内容を記載して下さい。また、記載の上の注意は、以下を参照して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>             ・処理が分岐しうる条件を、カラム名単位で詳細に記載して下さい。その際、カラム名は、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>               検証のポイントとなるカラムを選択して記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>　                 例：○○フラグ＝'Y'によって抽出対象となる事を確認</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>             ・データ取得ロジック(SELECT文)を確認する場合、SELECTできないケースも記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>             ・１データを複数のテスト・ステップで使用する場合、以下の例を参考に記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>                   例：シナリオX-Xと同時検証</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 「テスト対象機能」には、「MD.050機能拡張に当っての機能設計書」（または「MD.070 機能拡張にあたっての</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>        技術設計書」）で定義される「機能番号」および「機能名」を記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 画面テストの際に画面から入力する値は、「テスト内容」欄に記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: コンカレント、共通関数のテスト実施の際に使用するパラメータは、「テスト内容」欄に記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1171575</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>154305</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="251460" y="33059370"/>
+          <a:ext cx="6939915" cy="2802255"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>【TE.070作成時の注意点】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: テスト結果表に単体テスト結果を記載する際には、次のガイドラインに従います。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            1）予想結果: 成否判定が可能な予想される結果または出力を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>                    例：○○フラグ＝'Y'により抽出対象となる、××IDが不一致のため更新対象外となる</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            2）実際の結果: 実際にテスト・ステップで定義された内容でテストを実施した際の、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>               予想結果に対応する実際の結果または出力を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            3）判定: 予想結果と実際の結果を比較し、テストの成否を判定した結果を以下の3つの記号で記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            　　・○: テスト成功</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            　　・×: テスト失敗</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            　　・－: 対象外（前ステップでテストが失敗し、テストが実施できなかったような場合に使用します。）</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            4）テスター: テスト実施者名を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            5）実施日: テスト実施日の年月日を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: パフォーマンス・テスト用のテスト・シナリオの場合、「予想結果」、「実際の結果」に処理時間を記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 再テストの場合、行を挿入して再テスト結果を記載してください。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2447925</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>154305</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="28575" y="29538930"/>
+          <a:ext cx="3303270" cy="455295"/>
         </a:xfrm>
         <a:prstGeom prst="foldedCorner">
           <a:avLst>
@@ -11957,7 +12928,7 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="10.75" style="2" customWidth="1"/>
@@ -11967,7 +12938,7 @@
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" ht="12" customHeight="1">
+    <row r="3" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -11975,7 +12946,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:8" ht="6" customHeight="1">
+    <row r="4" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -11984,7 +12955,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" ht="21">
+    <row r="5" spans="2:8" ht="21" x14ac:dyDescent="0.15">
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -11993,67 +12964,67 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="2:8" ht="64.150000000000006" customHeight="1">
-      <c r="B6" s="136" t="s">
+    <row r="6" spans="2:8" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="141" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="136"/>
-      <c r="D6" s="136"/>
-      <c r="E6" s="136"/>
-      <c r="F6" s="136"/>
-      <c r="G6" s="136"/>
-      <c r="H6" s="136"/>
-    </row>
-    <row r="7" spans="2:8" ht="6" customHeight="1">
+      <c r="C6" s="141"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="141"/>
+      <c r="H6" s="141"/>
+    </row>
+    <row r="7" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="5"/>
     </row>
-    <row r="8" spans="2:8" ht="6" customHeight="1">
+    <row r="8" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="5"/>
     </row>
-    <row r="9" spans="2:8" ht="58.5" customHeight="1">
-      <c r="B9" s="137" t="s">
+    <row r="9" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="137"/>
-      <c r="D9" s="137"/>
-      <c r="E9" s="137"/>
-      <c r="F9" s="137"/>
-      <c r="G9" s="137"/>
-      <c r="H9" s="137"/>
-    </row>
-    <row r="10" spans="2:8" ht="6" customHeight="1">
+      <c r="C9" s="142"/>
+      <c r="D9" s="142"/>
+      <c r="E9" s="142"/>
+      <c r="F9" s="142"/>
+      <c r="G9" s="142"/>
+      <c r="H9" s="142"/>
+    </row>
+    <row r="10" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="5"/>
     </row>
-    <row r="11" spans="2:8" ht="58.5" customHeight="1">
-      <c r="B11" s="137" t="s">
+    <row r="11" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="142" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="137"/>
-      <c r="D11" s="137"/>
-      <c r="E11" s="137"/>
-      <c r="F11" s="137"/>
-      <c r="G11" s="137"/>
-      <c r="H11" s="137"/>
-    </row>
-    <row r="12" spans="2:8" ht="6" customHeight="1"/>
-    <row r="13" spans="2:8" ht="58.5" customHeight="1">
-      <c r="B13" s="137" t="s">
+      <c r="C11" s="142"/>
+      <c r="D11" s="142"/>
+      <c r="E11" s="142"/>
+      <c r="F11" s="142"/>
+      <c r="G11" s="142"/>
+      <c r="H11" s="142"/>
+    </row>
+    <row r="12" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="142" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="137"/>
-      <c r="D13" s="137"/>
-      <c r="E13" s="137"/>
-      <c r="F13" s="137"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="137"/>
-    </row>
-    <row r="14" spans="2:8">
+      <c r="C13" s="142"/>
+      <c r="D13" s="142"/>
+      <c r="E13" s="142"/>
+      <c r="F13" s="142"/>
+      <c r="G13" s="142"/>
+      <c r="H13" s="142"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B14" s="6"/>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B15" s="6"/>
     </row>
-    <row r="16" spans="2:8">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B16" s="6" t="s">
         <v>1</v>
       </c>
@@ -12061,11 +13032,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="6" customHeight="1">
+    <row r="17" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B18" s="6" t="s">
         <v>2</v>
       </c>
@@ -12073,23 +13044,23 @@
         <v>44904</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="6" customHeight="1">
+    <row r="19" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="6"/>
       <c r="C19" s="8"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B20" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="7">
-        <v>44984</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="6" customHeight="1">
+        <v>45561</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B22" s="6" t="s">
         <v>73</v>
       </c>
@@ -12097,25 +13068,25 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="6" customHeight="1">
+    <row r="23" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B24" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B25" s="6"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B26" s="6"/>
     </row>
-    <row r="28" spans="1:8" ht="12" customHeight="1">
+    <row r="28" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="10"/>
@@ -12127,7 +13098,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="12" customHeight="1">
+    <row r="29" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -12165,7 +13136,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -12178,7 +13149,7 @@
     <col min="10" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -12189,61 +13160,61 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
-      <c r="B10" s="106" t="s">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="107" t="s">
+      <c r="C10" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="107" t="s">
+      <c r="D10" s="106" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="107" t="s">
+      <c r="E10" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="107" t="s">
+      <c r="F10" s="106" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="107" t="s">
+      <c r="G10" s="106" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="107" t="s">
+      <c r="H10" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="I10" s="108" t="s">
+      <c r="I10" s="107" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21">
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
       <c r="B11" s="64" t="s">
         <v>137</v>
@@ -12253,16 +13224,16 @@
       </c>
       <c r="D11" s="46"/>
       <c r="E11" s="46"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="127"/>
-    </row>
-    <row r="12" spans="1:9" ht="73.5">
+      <c r="F11" s="120"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="126"/>
+    </row>
+    <row r="12" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="B12" s="64" t="s">
         <v>138</v>
       </c>
-      <c r="C12" s="120" t="s">
+      <c r="C12" s="119" t="s">
         <v>163</v>
       </c>
       <c r="D12" s="46" t="s">
@@ -12284,7 +13255,7 @@
         <v>44908</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="52.5">
+    <row r="13" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B13" s="64"/>
       <c r="C13" s="46"/>
       <c r="D13" s="46"/>
@@ -12304,14 +13275,14 @@
         <v>44908</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="42">
+    <row r="14" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B14" s="64"/>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
       <c r="E14" s="57" t="s">
         <v>140</v>
       </c>
-      <c r="F14" s="122" t="s">
+      <c r="F14" s="121" t="s">
         <v>177</v>
       </c>
       <c r="G14" s="46" t="s">
@@ -12324,7 +13295,7 @@
         <v>44908</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="52.5">
+    <row r="15" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B15" s="64"/>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
@@ -12344,12 +13315,12 @@
         <v>44908</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="21">
+    <row r="16" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A16" s="38"/>
       <c r="B16" s="64"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
-      <c r="E16" s="122" t="s">
+      <c r="E16" s="121" t="s">
         <v>141</v>
       </c>
       <c r="F16" s="57" t="s">
@@ -12365,12 +13336,12 @@
         <v>44908</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="73.5">
+    <row r="17" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="A17" s="38"/>
       <c r="B17" s="64" t="s">
         <v>142</v>
       </c>
-      <c r="C17" s="120" t="s">
+      <c r="C17" s="119" t="s">
         <v>175</v>
       </c>
       <c r="D17" s="46" t="s">
@@ -12392,7 +13363,7 @@
         <v>44908</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="63">
+    <row r="18" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="B18" s="64"/>
       <c r="C18" s="46"/>
       <c r="D18" s="46"/>
@@ -12412,7 +13383,7 @@
         <v>44908</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="42">
+    <row r="19" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B19" s="64"/>
       <c r="C19" s="46"/>
       <c r="D19" s="46"/>
@@ -12432,7 +13403,7 @@
         <v>44908</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="52.5">
+    <row r="20" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B20" s="64"/>
       <c r="C20" s="46"/>
       <c r="D20" s="46"/>
@@ -12452,11 +13423,11 @@
         <v>44908</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="84">
+    <row r="21" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="B21" s="64"/>
       <c r="C21" s="46"/>
       <c r="D21" s="46"/>
-      <c r="E21" s="122" t="s">
+      <c r="E21" s="121" t="s">
         <v>146</v>
       </c>
       <c r="F21" s="46" t="s">
@@ -12472,11 +13443,11 @@
         <v>44908</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="84">
+    <row r="22" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="B22" s="64"/>
       <c r="C22" s="46"/>
       <c r="D22" s="46"/>
-      <c r="E22" s="122" t="s">
+      <c r="E22" s="121" t="s">
         <v>145</v>
       </c>
       <c r="F22" s="46" t="s">
@@ -12492,19 +13463,19 @@
         <v>44908</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" s="64"/>
       <c r="C23" s="46"/>
       <c r="D23" s="46"/>
-      <c r="E23" s="122"/>
+      <c r="E23" s="121"/>
       <c r="F23" s="46"/>
       <c r="G23" s="46"/>
       <c r="H23" s="46"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B24" s="64"/>
-      <c r="C24" s="120"/>
+      <c r="C24" s="119"/>
       <c r="D24" s="46"/>
       <c r="E24" s="51"/>
       <c r="F24" s="46"/>
@@ -12512,7 +13483,7 @@
       <c r="H24" s="46"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="64"/>
       <c r="C25" s="46"/>
       <c r="D25" s="46"/>
@@ -12522,7 +13493,7 @@
       <c r="H25" s="46"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="68"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -12532,7 +13503,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="68"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
@@ -12542,7 +13513,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="68"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
@@ -12552,7 +13523,7 @@
       <c r="H28" s="46"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9" ht="14.25" thickBot="1">
+    <row r="29" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B29" s="72"/>
       <c r="C29" s="47"/>
       <c r="D29" s="47"/>
@@ -12562,7 +13533,7 @@
       <c r="H29" s="47"/>
       <c r="I29" s="77"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
       <c r="D30" s="35"/>
@@ -12572,7 +13543,7 @@
       <c r="H30" s="35"/>
       <c r="I30" s="35"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
@@ -12582,7 +13553,7 @@
       <c r="H31" s="35"/>
       <c r="I31" s="35"/>
     </row>
-    <row r="32" spans="1:9" ht="6" customHeight="1">
+    <row r="32" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="28"/>
       <c r="B32" s="28"/>
       <c r="C32" s="28"/>
@@ -12592,7 +13563,7 @@
       <c r="G32" s="35"/>
       <c r="H32" s="35"/>
     </row>
-    <row r="33" spans="1:9" ht="14.25">
+    <row r="33" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="32" t="s">
         <v>50</v>
       </c>
@@ -12602,7 +13573,7 @@
       <c r="H33" s="35"/>
       <c r="I33" s="35"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B34" s="35"/>
       <c r="C34" s="35"/>
       <c r="D34" s="35"/>
@@ -12612,7 +13583,7 @@
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
@@ -12622,7 +13593,7 @@
       <c r="H35" s="35"/>
       <c r="I35" s="35"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="35"/>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
@@ -12632,7 +13603,7 @@
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
@@ -12642,7 +13613,7 @@
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
@@ -12652,7 +13623,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
@@ -12670,7 +13641,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -12688,7 +13659,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -12701,7 +13672,7 @@
     <col min="10" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -12712,61 +13683,61 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
-      <c r="B10" s="106" t="s">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="107" t="s">
+      <c r="C10" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="107" t="s">
+      <c r="D10" s="106" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="107" t="s">
+      <c r="E10" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="107" t="s">
+      <c r="F10" s="106" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="107" t="s">
+      <c r="G10" s="106" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="107" t="s">
+      <c r="H10" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="I10" s="108" t="s">
+      <c r="I10" s="107" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21">
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
       <c r="B11" s="64" t="s">
         <v>154</v>
@@ -12776,16 +13747,16 @@
       </c>
       <c r="D11" s="46"/>
       <c r="E11" s="46"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="127"/>
-    </row>
-    <row r="12" spans="1:9" ht="73.5">
+      <c r="F11" s="120"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="126"/>
+    </row>
+    <row r="12" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="B12" s="64" t="s">
         <v>155</v>
       </c>
-      <c r="C12" s="120" t="s">
+      <c r="C12" s="119" t="s">
         <v>175</v>
       </c>
       <c r="D12" s="46" t="s">
@@ -12794,7 +13765,7 @@
       <c r="E12" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="F12" s="121" t="s">
+      <c r="F12" s="120" t="s">
         <v>178</v>
       </c>
       <c r="G12" s="46" t="s">
@@ -12807,7 +13778,7 @@
         <v>44909</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="63">
+    <row r="13" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="B13" s="64"/>
       <c r="C13" s="46"/>
       <c r="D13" s="46"/>
@@ -12827,14 +13798,14 @@
         <v>44909</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="42">
+    <row r="14" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B14" s="64"/>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
       <c r="E14" s="57" t="s">
         <v>140</v>
       </c>
-      <c r="F14" s="122" t="s">
+      <c r="F14" s="121" t="s">
         <v>178</v>
       </c>
       <c r="G14" s="46" t="s">
@@ -12847,7 +13818,7 @@
         <v>44909</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="52.5">
+    <row r="15" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B15" s="64"/>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
@@ -12867,12 +13838,12 @@
         <v>44909</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="21">
+    <row r="16" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A16" s="38"/>
       <c r="B16" s="64"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
-      <c r="E16" s="122" t="s">
+      <c r="E16" s="121" t="s">
         <v>141</v>
       </c>
       <c r="F16" s="57" t="s">
@@ -12888,80 +13859,80 @@
         <v>44909</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="38"/>
-      <c r="B17" s="126"/>
+      <c r="B17" s="125"/>
       <c r="C17" s="46"/>
-      <c r="D17" s="122"/>
+      <c r="D17" s="121"/>
       <c r="E17" s="46"/>
       <c r="F17" s="57"/>
       <c r="G17" s="57"/>
       <c r="H17" s="57"/>
       <c r="I17" s="76"/>
     </row>
-    <row r="18" spans="1:9">
-      <c r="B18" s="126"/>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B18" s="125"/>
       <c r="C18" s="46"/>
-      <c r="D18" s="122"/>
-      <c r="E18" s="122"/>
+      <c r="D18" s="121"/>
+      <c r="E18" s="121"/>
       <c r="F18" s="46"/>
       <c r="G18" s="46"/>
       <c r="H18" s="46"/>
       <c r="I18" s="76"/>
     </row>
-    <row r="19" spans="1:9">
-      <c r="B19" s="126"/>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B19" s="125"/>
       <c r="C19" s="46"/>
       <c r="D19" s="46"/>
-      <c r="E19" s="122"/>
+      <c r="E19" s="121"/>
       <c r="F19" s="46"/>
       <c r="G19" s="46"/>
       <c r="H19" s="46"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="64"/>
       <c r="C20" s="46"/>
       <c r="D20" s="46"/>
-      <c r="E20" s="122"/>
+      <c r="E20" s="121"/>
       <c r="F20" s="46"/>
       <c r="G20" s="46"/>
       <c r="H20" s="46"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B21" s="64"/>
       <c r="C21" s="46"/>
       <c r="D21" s="46"/>
-      <c r="E21" s="122"/>
+      <c r="E21" s="121"/>
       <c r="F21" s="46"/>
       <c r="G21" s="46"/>
       <c r="H21" s="46"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B22" s="64"/>
       <c r="C22" s="46"/>
       <c r="D22" s="46"/>
-      <c r="E22" s="122"/>
+      <c r="E22" s="121"/>
       <c r="F22" s="46"/>
       <c r="G22" s="46"/>
       <c r="H22" s="46"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" s="64"/>
       <c r="C23" s="46"/>
       <c r="D23" s="46"/>
-      <c r="E23" s="122"/>
+      <c r="E23" s="121"/>
       <c r="F23" s="46"/>
       <c r="G23" s="46"/>
       <c r="H23" s="46"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B24" s="64"/>
-      <c r="C24" s="120"/>
+      <c r="C24" s="119"/>
       <c r="D24" s="46"/>
       <c r="E24" s="51"/>
       <c r="F24" s="46"/>
@@ -12969,7 +13940,7 @@
       <c r="H24" s="46"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="64"/>
       <c r="C25" s="46"/>
       <c r="D25" s="46"/>
@@ -12979,7 +13950,7 @@
       <c r="H25" s="46"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="68"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -12989,7 +13960,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="68"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
@@ -12999,7 +13970,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="68"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
@@ -13009,7 +13980,7 @@
       <c r="H28" s="46"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9" ht="14.25" thickBot="1">
+    <row r="29" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B29" s="72"/>
       <c r="C29" s="47"/>
       <c r="D29" s="47"/>
@@ -13019,7 +13990,7 @@
       <c r="H29" s="47"/>
       <c r="I29" s="77"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
       <c r="D30" s="35"/>
@@ -13029,7 +14000,7 @@
       <c r="H30" s="35"/>
       <c r="I30" s="35"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
@@ -13039,7 +14010,7 @@
       <c r="H31" s="35"/>
       <c r="I31" s="35"/>
     </row>
-    <row r="32" spans="1:9" ht="6" customHeight="1">
+    <row r="32" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="28"/>
       <c r="B32" s="28"/>
       <c r="C32" s="28"/>
@@ -13049,7 +14020,7 @@
       <c r="G32" s="35"/>
       <c r="H32" s="35"/>
     </row>
-    <row r="33" spans="1:9" ht="14.25">
+    <row r="33" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="32" t="s">
         <v>50</v>
       </c>
@@ -13059,7 +14030,7 @@
       <c r="H33" s="35"/>
       <c r="I33" s="35"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B34" s="35"/>
       <c r="C34" s="35"/>
       <c r="D34" s="35"/>
@@ -13069,7 +14040,7 @@
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
@@ -13079,7 +14050,7 @@
       <c r="H35" s="35"/>
       <c r="I35" s="35"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="35"/>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
@@ -13089,7 +14060,7 @@
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
@@ -13099,7 +14070,7 @@
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
@@ -13109,7 +14080,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
@@ -13127,7 +14098,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -13145,7 +14116,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -13158,7 +14129,7 @@
     <col min="10" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -13169,61 +14140,61 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
-      <c r="B10" s="106" t="s">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="105" t="s">
         <v>157</v>
       </c>
-      <c r="C10" s="107" t="s">
+      <c r="C10" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="107" t="s">
+      <c r="D10" s="106" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="107" t="s">
+      <c r="E10" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="107" t="s">
+      <c r="F10" s="106" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="107" t="s">
+      <c r="G10" s="106" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="107" t="s">
+      <c r="H10" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="I10" s="108" t="s">
+      <c r="I10" s="107" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21">
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
       <c r="B11" s="64" t="s">
         <v>158</v>
@@ -13233,16 +14204,16 @@
       </c>
       <c r="D11" s="46"/>
       <c r="E11" s="46"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="127"/>
-    </row>
-    <row r="12" spans="1:9" ht="73.5">
+      <c r="F11" s="120"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="126"/>
+    </row>
+    <row r="12" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="B12" s="64" t="s">
         <v>159</v>
       </c>
-      <c r="C12" s="120" t="s">
+      <c r="C12" s="119" t="s">
         <v>175</v>
       </c>
       <c r="D12" s="46" t="s">
@@ -13251,7 +14222,7 @@
       <c r="E12" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="F12" s="121" t="s">
+      <c r="F12" s="120" t="s">
         <v>177</v>
       </c>
       <c r="G12" s="46" t="s">
@@ -13264,7 +14235,7 @@
         <v>44909</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="63">
+    <row r="13" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="B13" s="64"/>
       <c r="C13" s="46"/>
       <c r="D13" s="46"/>
@@ -13284,14 +14255,14 @@
         <v>44909</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="42">
+    <row r="14" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B14" s="64"/>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
       <c r="E14" s="57" t="s">
         <v>140</v>
       </c>
-      <c r="F14" s="122" t="s">
+      <c r="F14" s="121" t="s">
         <v>177</v>
       </c>
       <c r="G14" s="46" t="s">
@@ -13304,7 +14275,7 @@
         <v>44909</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="52.5">
+    <row r="15" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B15" s="64"/>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
@@ -13324,12 +14295,12 @@
         <v>44909</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="21">
+    <row r="16" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A16" s="38"/>
       <c r="B16" s="64"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
-      <c r="E16" s="122" t="s">
+      <c r="E16" s="121" t="s">
         <v>141</v>
       </c>
       <c r="F16" s="57" t="s">
@@ -13345,80 +14316,80 @@
         <v>44909</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="38"/>
-      <c r="B17" s="126"/>
+      <c r="B17" s="125"/>
       <c r="C17" s="46"/>
-      <c r="D17" s="122"/>
+      <c r="D17" s="121"/>
       <c r="E17" s="46"/>
       <c r="F17" s="57"/>
       <c r="G17" s="57"/>
       <c r="H17" s="57"/>
       <c r="I17" s="76"/>
     </row>
-    <row r="18" spans="1:9">
-      <c r="B18" s="126"/>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B18" s="125"/>
       <c r="C18" s="46"/>
-      <c r="D18" s="122"/>
-      <c r="E18" s="122"/>
+      <c r="D18" s="121"/>
+      <c r="E18" s="121"/>
       <c r="F18" s="46"/>
       <c r="G18" s="46"/>
       <c r="H18" s="46"/>
       <c r="I18" s="76"/>
     </row>
-    <row r="19" spans="1:9">
-      <c r="B19" s="126"/>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B19" s="125"/>
       <c r="C19" s="46"/>
       <c r="D19" s="46"/>
-      <c r="E19" s="122"/>
+      <c r="E19" s="121"/>
       <c r="F19" s="46"/>
       <c r="G19" s="46"/>
       <c r="H19" s="46"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="64"/>
       <c r="C20" s="46"/>
       <c r="D20" s="46"/>
-      <c r="E20" s="122"/>
+      <c r="E20" s="121"/>
       <c r="F20" s="46"/>
       <c r="G20" s="46"/>
       <c r="H20" s="46"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B21" s="64"/>
       <c r="C21" s="46"/>
       <c r="D21" s="46"/>
-      <c r="E21" s="122"/>
+      <c r="E21" s="121"/>
       <c r="F21" s="46"/>
       <c r="G21" s="46"/>
       <c r="H21" s="46"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B22" s="64"/>
       <c r="C22" s="46"/>
       <c r="D22" s="46"/>
-      <c r="E22" s="122"/>
+      <c r="E22" s="121"/>
       <c r="F22" s="46"/>
       <c r="G22" s="46"/>
       <c r="H22" s="46"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" s="64"/>
       <c r="C23" s="46"/>
       <c r="D23" s="46"/>
-      <c r="E23" s="122"/>
+      <c r="E23" s="121"/>
       <c r="F23" s="46"/>
       <c r="G23" s="46"/>
       <c r="H23" s="46"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B24" s="64"/>
-      <c r="C24" s="120"/>
+      <c r="C24" s="119"/>
       <c r="D24" s="46"/>
       <c r="E24" s="51"/>
       <c r="F24" s="46"/>
@@ -13426,7 +14397,7 @@
       <c r="H24" s="46"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="64"/>
       <c r="C25" s="46"/>
       <c r="D25" s="46"/>
@@ -13436,7 +14407,7 @@
       <c r="H25" s="46"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="68"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -13446,7 +14417,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="68"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
@@ -13456,7 +14427,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="68"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
@@ -13466,7 +14437,7 @@
       <c r="H28" s="46"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9" ht="14.25" thickBot="1">
+    <row r="29" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B29" s="72"/>
       <c r="C29" s="47"/>
       <c r="D29" s="47"/>
@@ -13476,7 +14447,7 @@
       <c r="H29" s="47"/>
       <c r="I29" s="77"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
       <c r="D30" s="35"/>
@@ -13486,7 +14457,7 @@
       <c r="H30" s="35"/>
       <c r="I30" s="35"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
@@ -13496,7 +14467,7 @@
       <c r="H31" s="35"/>
       <c r="I31" s="35"/>
     </row>
-    <row r="32" spans="1:9" ht="6" customHeight="1">
+    <row r="32" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="28"/>
       <c r="B32" s="28"/>
       <c r="C32" s="28"/>
@@ -13506,7 +14477,7 @@
       <c r="G32" s="35"/>
       <c r="H32" s="35"/>
     </row>
-    <row r="33" spans="1:9" ht="14.25">
+    <row r="33" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="32" t="s">
         <v>50</v>
       </c>
@@ -13516,7 +14487,7 @@
       <c r="H33" s="35"/>
       <c r="I33" s="35"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B34" s="35"/>
       <c r="C34" s="35"/>
       <c r="D34" s="35"/>
@@ -13526,7 +14497,7 @@
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
@@ -13536,7 +14507,7 @@
       <c r="H35" s="35"/>
       <c r="I35" s="35"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="35"/>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
@@ -13546,7 +14517,7 @@
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
@@ -13556,7 +14527,7 @@
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
@@ -13566,7 +14537,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
@@ -13584,7 +14555,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -13602,7 +14573,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -13615,7 +14586,7 @@
     <col min="10" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -13626,61 +14597,61 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
-      <c r="B10" s="106" t="s">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="105" t="s">
         <v>157</v>
       </c>
-      <c r="C10" s="107" t="s">
+      <c r="C10" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="107" t="s">
+      <c r="D10" s="106" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="107" t="s">
+      <c r="E10" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="107" t="s">
+      <c r="F10" s="106" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="107" t="s">
+      <c r="G10" s="106" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="107" t="s">
+      <c r="H10" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="I10" s="108" t="s">
+      <c r="I10" s="107" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21">
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
       <c r="B11" s="64" t="s">
         <v>161</v>
@@ -13690,16 +14661,16 @@
       </c>
       <c r="D11" s="46"/>
       <c r="E11" s="46"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="127"/>
-    </row>
-    <row r="12" spans="1:9" ht="73.5">
+      <c r="F11" s="120"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="126"/>
+    </row>
+    <row r="12" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="B12" s="64" t="s">
         <v>162</v>
       </c>
-      <c r="C12" s="120" t="s">
+      <c r="C12" s="119" t="s">
         <v>173</v>
       </c>
       <c r="D12" s="46" t="s">
@@ -13708,7 +14679,7 @@
       <c r="E12" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="F12" s="121" t="s">
+      <c r="F12" s="120" t="s">
         <v>177</v>
       </c>
       <c r="G12" s="46" t="s">
@@ -13721,7 +14692,7 @@
         <v>44908</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="63">
+    <row r="13" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="B13" s="64"/>
       <c r="C13" s="46"/>
       <c r="D13" s="46"/>
@@ -13741,14 +14712,14 @@
         <v>44908</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="42">
+    <row r="14" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B14" s="64"/>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
       <c r="E14" s="57" t="s">
         <v>140</v>
       </c>
-      <c r="F14" s="122" t="s">
+      <c r="F14" s="121" t="s">
         <v>177</v>
       </c>
       <c r="G14" s="46" t="s">
@@ -13761,7 +14732,7 @@
         <v>44908</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="52.5">
+    <row r="15" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B15" s="64"/>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
@@ -13781,12 +14752,12 @@
         <v>44908</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="21">
+    <row r="16" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A16" s="38"/>
       <c r="B16" s="64"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
-      <c r="E16" s="122" t="s">
+      <c r="E16" s="121" t="s">
         <v>141</v>
       </c>
       <c r="F16" s="57" t="s">
@@ -13802,80 +14773,80 @@
         <v>44908</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="38"/>
-      <c r="B17" s="126"/>
+      <c r="B17" s="125"/>
       <c r="C17" s="46"/>
-      <c r="D17" s="122"/>
+      <c r="D17" s="121"/>
       <c r="E17" s="46"/>
       <c r="F17" s="57"/>
       <c r="G17" s="57"/>
       <c r="H17" s="57"/>
       <c r="I17" s="76"/>
     </row>
-    <row r="18" spans="1:9">
-      <c r="B18" s="126"/>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B18" s="125"/>
       <c r="C18" s="46"/>
-      <c r="D18" s="122"/>
-      <c r="E18" s="122"/>
+      <c r="D18" s="121"/>
+      <c r="E18" s="121"/>
       <c r="F18" s="46"/>
       <c r="G18" s="46"/>
       <c r="H18" s="46"/>
       <c r="I18" s="76"/>
     </row>
-    <row r="19" spans="1:9">
-      <c r="B19" s="126"/>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B19" s="125"/>
       <c r="C19" s="46"/>
       <c r="D19" s="46"/>
-      <c r="E19" s="122"/>
+      <c r="E19" s="121"/>
       <c r="F19" s="46"/>
       <c r="G19" s="46"/>
       <c r="H19" s="46"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="64"/>
       <c r="C20" s="46"/>
       <c r="D20" s="46"/>
-      <c r="E20" s="122"/>
+      <c r="E20" s="121"/>
       <c r="F20" s="46"/>
       <c r="G20" s="46"/>
       <c r="H20" s="46"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B21" s="64"/>
       <c r="C21" s="46"/>
       <c r="D21" s="46"/>
-      <c r="E21" s="122"/>
+      <c r="E21" s="121"/>
       <c r="F21" s="46"/>
       <c r="G21" s="46"/>
       <c r="H21" s="46"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B22" s="64"/>
       <c r="C22" s="46"/>
       <c r="D22" s="46"/>
-      <c r="E22" s="122"/>
+      <c r="E22" s="121"/>
       <c r="F22" s="46"/>
       <c r="G22" s="46"/>
       <c r="H22" s="46"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" s="64"/>
       <c r="C23" s="46"/>
       <c r="D23" s="46"/>
-      <c r="E23" s="122"/>
+      <c r="E23" s="121"/>
       <c r="F23" s="46"/>
       <c r="G23" s="46"/>
       <c r="H23" s="46"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B24" s="64"/>
-      <c r="C24" s="120"/>
+      <c r="C24" s="119"/>
       <c r="D24" s="46"/>
       <c r="E24" s="51"/>
       <c r="F24" s="46"/>
@@ -13883,7 +14854,7 @@
       <c r="H24" s="46"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="64"/>
       <c r="C25" s="46"/>
       <c r="D25" s="46"/>
@@ -13893,7 +14864,7 @@
       <c r="H25" s="46"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="68"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -13903,7 +14874,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="68"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
@@ -13913,7 +14884,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="68"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
@@ -13923,7 +14894,7 @@
       <c r="H28" s="46"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9" ht="14.25" thickBot="1">
+    <row r="29" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B29" s="72"/>
       <c r="C29" s="47"/>
       <c r="D29" s="47"/>
@@ -13933,7 +14904,7 @@
       <c r="H29" s="47"/>
       <c r="I29" s="77"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
       <c r="D30" s="35"/>
@@ -13943,7 +14914,7 @@
       <c r="H30" s="35"/>
       <c r="I30" s="35"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
@@ -13953,7 +14924,7 @@
       <c r="H31" s="35"/>
       <c r="I31" s="35"/>
     </row>
-    <row r="32" spans="1:9" ht="6" customHeight="1">
+    <row r="32" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="28"/>
       <c r="B32" s="28"/>
       <c r="C32" s="28"/>
@@ -13963,7 +14934,7 @@
       <c r="G32" s="35"/>
       <c r="H32" s="35"/>
     </row>
-    <row r="33" spans="1:9" ht="14.25">
+    <row r="33" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="32" t="s">
         <v>50</v>
       </c>
@@ -13973,7 +14944,7 @@
       <c r="H33" s="35"/>
       <c r="I33" s="35"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B34" s="35"/>
       <c r="C34" s="35"/>
       <c r="D34" s="35"/>
@@ -13983,7 +14954,7 @@
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
@@ -13993,7 +14964,7 @@
       <c r="H35" s="35"/>
       <c r="I35" s="35"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="35"/>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
@@ -14003,7 +14974,7 @@
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
@@ -14013,7 +14984,7 @@
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
@@ -14023,7 +14994,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
@@ -14041,7 +15012,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -14060,7 +15031,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -14073,7 +15044,7 @@
     <col min="10" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -14084,61 +15055,61 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
-      <c r="B10" s="106" t="s">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="107" t="s">
+      <c r="C10" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="107" t="s">
+      <c r="D10" s="106" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="107" t="s">
+      <c r="E10" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="107" t="s">
+      <c r="F10" s="106" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="107" t="s">
+      <c r="G10" s="106" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="107" t="s">
+      <c r="H10" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="I10" s="108" t="s">
+      <c r="I10" s="107" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="31.5">
+    <row r="11" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
       <c r="B11" s="64" t="s">
         <v>196</v>
@@ -14153,12 +15124,12 @@
       <c r="H11" s="51"/>
       <c r="I11" s="78"/>
     </row>
-    <row r="12" spans="1:9" ht="73.5">
+    <row r="12" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="A12" s="38"/>
       <c r="B12" s="64" t="s">
         <v>198</v>
       </c>
-      <c r="C12" s="120" t="s">
+      <c r="C12" s="119" t="s">
         <v>199</v>
       </c>
       <c r="D12" s="46" t="s">
@@ -14180,7 +15151,7 @@
         <v>44921</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="52.5">
+    <row r="13" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A13" s="38"/>
       <c r="B13" s="64"/>
       <c r="C13" s="46"/>
@@ -14201,7 +15172,7 @@
         <v>44921</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="42">
+    <row r="14" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B14" s="64"/>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
@@ -14221,7 +15192,7 @@
         <v>44921</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="52.5">
+    <row r="15" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A15" s="38"/>
       <c r="B15" s="64"/>
       <c r="C15" s="46"/>
@@ -14242,11 +15213,11 @@
         <v>44921</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="84">
+    <row r="16" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="B16" s="64"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
-      <c r="E16" s="122" t="s">
+      <c r="E16" s="121" t="s">
         <v>201</v>
       </c>
       <c r="F16" s="46" t="s">
@@ -14262,14 +15233,14 @@
         <v>44921</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="84">
+    <row r="17" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="B17" s="64"/>
       <c r="C17" s="46"/>
       <c r="D17" s="46"/>
-      <c r="E17" s="122" t="s">
+      <c r="E17" s="121" t="s">
         <v>202</v>
       </c>
-      <c r="F17" s="122" t="s">
+      <c r="F17" s="121" t="s">
         <v>177</v>
       </c>
       <c r="G17" s="46" t="s">
@@ -14282,7 +15253,7 @@
         <v>44921</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="105">
+    <row r="18" spans="1:9" ht="105" x14ac:dyDescent="0.15">
       <c r="B18" s="64"/>
       <c r="C18" s="46"/>
       <c r="D18" s="46"/>
@@ -14302,7 +15273,7 @@
         <v>44921</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" s="64"/>
       <c r="C19" s="46"/>
       <c r="D19" s="46"/>
@@ -14312,17 +15283,17 @@
       <c r="H19" s="46"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="64"/>
       <c r="C20" s="46"/>
       <c r="D20" s="46"/>
-      <c r="E20" s="122"/>
+      <c r="E20" s="121"/>
       <c r="F20" s="46"/>
       <c r="G20" s="46"/>
       <c r="H20" s="46"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="38"/>
       <c r="B21" s="64"/>
       <c r="C21" s="46"/>
@@ -14333,7 +15304,7 @@
       <c r="H21" s="57"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="38"/>
       <c r="B22" s="64"/>
       <c r="C22" s="46"/>
@@ -14344,17 +15315,17 @@
       <c r="H22" s="57"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" s="64"/>
       <c r="C23" s="46"/>
       <c r="D23" s="46"/>
-      <c r="E23" s="122"/>
+      <c r="E23" s="121"/>
       <c r="F23" s="46"/>
       <c r="G23" s="46"/>
       <c r="H23" s="46"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="38"/>
       <c r="B24" s="64"/>
       <c r="C24" s="46"/>
@@ -14365,7 +15336,7 @@
       <c r="H24" s="57"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="38"/>
       <c r="B25" s="64"/>
       <c r="C25" s="46"/>
@@ -14376,69 +15347,69 @@
       <c r="H25" s="57"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="64"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
-      <c r="E26" s="122"/>
+      <c r="E26" s="121"/>
       <c r="F26" s="46"/>
       <c r="G26" s="46"/>
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="64"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
-      <c r="E27" s="122"/>
+      <c r="E27" s="121"/>
       <c r="F27" s="46"/>
       <c r="G27" s="46"/>
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="64"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
-      <c r="E28" s="122"/>
+      <c r="E28" s="121"/>
       <c r="F28" s="46"/>
       <c r="G28" s="46"/>
       <c r="H28" s="46"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" s="64"/>
       <c r="C29" s="46"/>
       <c r="D29" s="46"/>
-      <c r="E29" s="122"/>
+      <c r="E29" s="121"/>
       <c r="F29" s="46"/>
       <c r="G29" s="46"/>
       <c r="H29" s="46"/>
       <c r="I29" s="76"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="64"/>
       <c r="C30" s="46"/>
       <c r="D30" s="46"/>
-      <c r="E30" s="122"/>
+      <c r="E30" s="121"/>
       <c r="F30" s="46"/>
       <c r="G30" s="46"/>
       <c r="H30" s="46"/>
       <c r="I30" s="76"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="64"/>
       <c r="C31" s="46"/>
       <c r="D31" s="46"/>
-      <c r="E31" s="122"/>
+      <c r="E31" s="121"/>
       <c r="F31" s="46"/>
       <c r="G31" s="46"/>
       <c r="H31" s="46"/>
       <c r="I31" s="76"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="64"/>
-      <c r="C32" s="120"/>
+      <c r="C32" s="119"/>
       <c r="D32" s="46"/>
       <c r="E32" s="51"/>
       <c r="F32" s="46"/>
@@ -14446,7 +15417,7 @@
       <c r="H32" s="46"/>
       <c r="I32" s="76"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B33" s="64"/>
       <c r="C33" s="46"/>
       <c r="D33" s="46"/>
@@ -14456,7 +15427,7 @@
       <c r="H33" s="46"/>
       <c r="I33" s="76"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B34" s="64"/>
       <c r="C34" s="46"/>
       <c r="D34" s="46"/>
@@ -14466,7 +15437,7 @@
       <c r="H34" s="46"/>
       <c r="I34" s="76"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="68"/>
       <c r="C35" s="46"/>
       <c r="D35" s="46"/>
@@ -14476,7 +15447,7 @@
       <c r="H35" s="46"/>
       <c r="I35" s="76"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="68"/>
       <c r="C36" s="46"/>
       <c r="D36" s="46"/>
@@ -14486,7 +15457,7 @@
       <c r="H36" s="46"/>
       <c r="I36" s="76"/>
     </row>
-    <row r="37" spans="1:9" ht="14.25" thickBot="1">
+    <row r="37" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B37" s="72"/>
       <c r="C37" s="47"/>
       <c r="D37" s="47"/>
@@ -14496,7 +15467,7 @@
       <c r="H37" s="47"/>
       <c r="I37" s="77"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
@@ -14506,7 +15477,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
@@ -14516,7 +15487,7 @@
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
     </row>
-    <row r="40" spans="1:9" ht="6" customHeight="1">
+    <row r="40" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="28"/>
       <c r="B40" s="28"/>
       <c r="C40" s="28"/>
@@ -14526,7 +15497,7 @@
       <c r="G40" s="35"/>
       <c r="H40" s="35"/>
     </row>
-    <row r="41" spans="1:9" ht="14.25">
+    <row r="41" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A41" s="32" t="s">
         <v>50</v>
       </c>
@@ -14536,7 +15507,7 @@
       <c r="H41" s="35"/>
       <c r="I41" s="35"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B42" s="35"/>
       <c r="C42" s="35"/>
       <c r="D42" s="35"/>
@@ -14546,8 +15517,8 @@
       <c r="H42" s="35"/>
       <c r="I42" s="35"/>
     </row>
-    <row r="43" spans="1:9">
-      <c r="B43" s="128"/>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B43" s="127"/>
       <c r="C43" s="35"/>
       <c r="D43" s="35"/>
       <c r="E43" s="35"/>
@@ -14556,7 +15527,7 @@
       <c r="H43" s="35"/>
       <c r="I43" s="35"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B44" s="35"/>
       <c r="C44" s="35"/>
       <c r="D44" s="35"/>
@@ -14566,7 +15537,7 @@
       <c r="H44" s="35"/>
       <c r="I44" s="35"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B45" s="35"/>
       <c r="C45" s="35"/>
       <c r="D45" s="35"/>
@@ -14576,7 +15547,7 @@
       <c r="H45" s="35"/>
       <c r="I45" s="35"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B46" s="35"/>
       <c r="C46" s="35"/>
       <c r="D46" s="35"/>
@@ -14586,7 +15557,7 @@
       <c r="H46" s="35"/>
       <c r="I46" s="35"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B47" s="35"/>
       <c r="C47" s="35"/>
       <c r="D47" s="35"/>
@@ -14604,7 +15575,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -14623,7 +15594,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -14636,7 +15607,7 @@
     <col min="10" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -14647,61 +15618,61 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
-      <c r="B10" s="106" t="s">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="107" t="s">
+      <c r="C10" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="107" t="s">
+      <c r="D10" s="106" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="107" t="s">
+      <c r="E10" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="107" t="s">
+      <c r="F10" s="106" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="107" t="s">
+      <c r="G10" s="106" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="107" t="s">
+      <c r="H10" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="I10" s="108" t="s">
+      <c r="I10" s="107" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="31.5">
+    <row r="11" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
       <c r="B11" s="64" t="s">
         <v>205</v>
@@ -14711,16 +15682,16 @@
       </c>
       <c r="D11" s="46"/>
       <c r="E11" s="46"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="127"/>
-    </row>
-    <row r="12" spans="1:9" ht="73.5">
+      <c r="F11" s="120"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="126"/>
+    </row>
+    <row r="12" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="B12" s="64" t="s">
         <v>206</v>
       </c>
-      <c r="C12" s="120" t="s">
+      <c r="C12" s="119" t="s">
         <v>207</v>
       </c>
       <c r="D12" s="46" t="s">
@@ -14742,14 +15713,14 @@
         <v>44921</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="52.5">
+    <row r="13" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B13" s="64"/>
       <c r="C13" s="46"/>
       <c r="D13" s="46"/>
       <c r="E13" s="57" t="s">
         <v>208</v>
       </c>
-      <c r="F13" s="122" t="s">
+      <c r="F13" s="121" t="s">
         <v>177</v>
       </c>
       <c r="G13" s="46" t="s">
@@ -14762,7 +15733,7 @@
         <v>44921</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="52.5">
+    <row r="14" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B14" s="64"/>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
@@ -14782,11 +15753,11 @@
         <v>44921</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="31.5">
+    <row r="15" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B15" s="64"/>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
-      <c r="E15" s="122" t="s">
+      <c r="E15" s="121" t="s">
         <v>129</v>
       </c>
       <c r="F15" s="46" t="s">
@@ -14802,10 +15773,10 @@
         <v>44921</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="105">
+    <row r="16" spans="1:9" ht="105" x14ac:dyDescent="0.15">
       <c r="B16" s="64"/>
       <c r="C16" s="46"/>
-      <c r="D16" s="122"/>
+      <c r="D16" s="121"/>
       <c r="E16" s="46" t="s">
         <v>203</v>
       </c>
@@ -14822,133 +15793,133 @@
         <v>44921</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B17" s="64"/>
       <c r="C17" s="46"/>
-      <c r="D17" s="122"/>
-      <c r="E17" s="122"/>
+      <c r="D17" s="121"/>
+      <c r="E17" s="121"/>
       <c r="F17" s="46"/>
       <c r="G17" s="46"/>
       <c r="H17" s="46"/>
       <c r="I17" s="76"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="38"/>
       <c r="B18" s="64"/>
       <c r="C18" s="46"/>
-      <c r="D18" s="122"/>
-      <c r="E18" s="122"/>
+      <c r="D18" s="121"/>
+      <c r="E18" s="121"/>
       <c r="F18" s="57"/>
       <c r="G18" s="57"/>
       <c r="H18" s="57"/>
       <c r="I18" s="76"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="38"/>
       <c r="B19" s="64"/>
       <c r="C19" s="46"/>
-      <c r="D19" s="122"/>
+      <c r="D19" s="121"/>
       <c r="E19" s="46"/>
       <c r="F19" s="57"/>
       <c r="G19" s="57"/>
       <c r="H19" s="57"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="64"/>
       <c r="C20" s="46"/>
-      <c r="D20" s="122"/>
-      <c r="E20" s="122"/>
+      <c r="D20" s="121"/>
+      <c r="E20" s="121"/>
       <c r="F20" s="46"/>
       <c r="G20" s="46"/>
       <c r="H20" s="46"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="38"/>
       <c r="B21" s="64"/>
       <c r="C21" s="46"/>
-      <c r="D21" s="122"/>
-      <c r="E21" s="122"/>
+      <c r="D21" s="121"/>
+      <c r="E21" s="121"/>
       <c r="F21" s="57"/>
       <c r="G21" s="57"/>
       <c r="H21" s="57"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="38"/>
       <c r="B22" s="64"/>
       <c r="C22" s="46"/>
-      <c r="D22" s="122"/>
+      <c r="D22" s="121"/>
       <c r="E22" s="46"/>
       <c r="F22" s="57"/>
       <c r="G22" s="57"/>
       <c r="H22" s="57"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" s="64"/>
       <c r="C23" s="46"/>
-      <c r="D23" s="122"/>
-      <c r="E23" s="122"/>
+      <c r="D23" s="121"/>
+      <c r="E23" s="121"/>
       <c r="F23" s="46"/>
       <c r="G23" s="46"/>
       <c r="H23" s="46"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B24" s="64"/>
       <c r="C24" s="46"/>
       <c r="D24" s="46"/>
-      <c r="E24" s="122"/>
+      <c r="E24" s="121"/>
       <c r="F24" s="46"/>
       <c r="G24" s="46"/>
       <c r="H24" s="46"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="64"/>
       <c r="C25" s="46"/>
       <c r="D25" s="46"/>
-      <c r="E25" s="122"/>
+      <c r="E25" s="121"/>
       <c r="F25" s="46"/>
       <c r="G25" s="46"/>
       <c r="H25" s="46"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="64"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
-      <c r="E26" s="122"/>
+      <c r="E26" s="121"/>
       <c r="F26" s="46"/>
       <c r="G26" s="46"/>
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="64"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
-      <c r="E27" s="122"/>
+      <c r="E27" s="121"/>
       <c r="F27" s="46"/>
       <c r="G27" s="46"/>
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="64"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
-      <c r="E28" s="122"/>
+      <c r="E28" s="121"/>
       <c r="F28" s="46"/>
       <c r="G28" s="46"/>
       <c r="H28" s="46"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" s="64"/>
-      <c r="C29" s="120"/>
+      <c r="C29" s="119"/>
       <c r="D29" s="46"/>
       <c r="E29" s="51"/>
       <c r="F29" s="46"/>
@@ -14956,7 +15927,7 @@
       <c r="H29" s="46"/>
       <c r="I29" s="76"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="64"/>
       <c r="C30" s="46"/>
       <c r="D30" s="46"/>
@@ -14966,7 +15937,7 @@
       <c r="H30" s="46"/>
       <c r="I30" s="76"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="68"/>
       <c r="C31" s="46"/>
       <c r="D31" s="46"/>
@@ -14976,7 +15947,7 @@
       <c r="H31" s="46"/>
       <c r="I31" s="76"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="68"/>
       <c r="C32" s="46"/>
       <c r="D32" s="46"/>
@@ -14986,7 +15957,7 @@
       <c r="H32" s="46"/>
       <c r="I32" s="76"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B33" s="68"/>
       <c r="C33" s="46"/>
       <c r="D33" s="46"/>
@@ -14996,7 +15967,7 @@
       <c r="H33" s="46"/>
       <c r="I33" s="76"/>
     </row>
-    <row r="34" spans="1:9" ht="14.25" thickBot="1">
+    <row r="34" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B34" s="72"/>
       <c r="C34" s="47"/>
       <c r="D34" s="47"/>
@@ -15006,7 +15977,7 @@
       <c r="H34" s="47"/>
       <c r="I34" s="77"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
@@ -15016,7 +15987,7 @@
       <c r="H35" s="35"/>
       <c r="I35" s="35"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="35"/>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
@@ -15026,7 +15997,7 @@
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
     </row>
-    <row r="37" spans="1:9" ht="6" customHeight="1">
+    <row r="37" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="28"/>
       <c r="B37" s="28"/>
       <c r="C37" s="28"/>
@@ -15036,7 +16007,7 @@
       <c r="G37" s="35"/>
       <c r="H37" s="35"/>
     </row>
-    <row r="38" spans="1:9" ht="14.25">
+    <row r="38" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="32" t="s">
         <v>50</v>
       </c>
@@ -15046,7 +16017,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
@@ -15056,7 +16027,7 @@
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B40" s="35"/>
       <c r="C40" s="35"/>
       <c r="D40" s="35"/>
@@ -15066,7 +16037,7 @@
       <c r="H40" s="35"/>
       <c r="I40" s="35"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B41" s="35"/>
       <c r="C41" s="35"/>
       <c r="D41" s="35"/>
@@ -15076,7 +16047,7 @@
       <c r="H41" s="35"/>
       <c r="I41" s="35"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B42" s="35"/>
       <c r="C42" s="35"/>
       <c r="D42" s="35"/>
@@ -15086,7 +16057,7 @@
       <c r="H42" s="35"/>
       <c r="I42" s="35"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B43" s="35"/>
       <c r="C43" s="35"/>
       <c r="D43" s="35"/>
@@ -15096,7 +16067,7 @@
       <c r="H43" s="35"/>
       <c r="I43" s="35"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B44" s="35"/>
       <c r="C44" s="35"/>
       <c r="D44" s="35"/>
@@ -15114,7 +16085,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -15132,7 +16103,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -15145,7 +16116,7 @@
     <col min="10" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -15156,61 +16127,61 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
-      <c r="B10" s="106" t="s">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="107" t="s">
+      <c r="C10" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="107" t="s">
+      <c r="D10" s="106" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="107" t="s">
+      <c r="E10" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="107" t="s">
+      <c r="F10" s="106" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="107" t="s">
+      <c r="G10" s="106" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="107" t="s">
+      <c r="H10" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="I10" s="108" t="s">
+      <c r="I10" s="107" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="31.5">
+    <row r="11" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
       <c r="B11" s="64" t="s">
         <v>210</v>
@@ -15220,16 +16191,16 @@
       </c>
       <c r="D11" s="46"/>
       <c r="E11" s="46"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="127"/>
-    </row>
-    <row r="12" spans="1:9" ht="73.5">
+      <c r="F11" s="120"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="126"/>
+    </row>
+    <row r="12" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="B12" s="64" t="s">
         <v>211</v>
       </c>
-      <c r="C12" s="120" t="s">
+      <c r="C12" s="119" t="s">
         <v>163</v>
       </c>
       <c r="D12" s="46" t="s">
@@ -15251,7 +16222,7 @@
         <v>44921</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="52.5">
+    <row r="13" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B13" s="64"/>
       <c r="C13" s="46"/>
       <c r="D13" s="46"/>
@@ -15271,14 +16242,14 @@
         <v>44921</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="42">
+    <row r="14" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B14" s="64"/>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
       <c r="E14" s="57" t="s">
         <v>140</v>
       </c>
-      <c r="F14" s="122" t="s">
+      <c r="F14" s="121" t="s">
         <v>177</v>
       </c>
       <c r="G14" s="46" t="s">
@@ -15291,7 +16262,7 @@
         <v>44921</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="52.5">
+    <row r="15" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B15" s="64"/>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
@@ -15311,12 +16282,12 @@
         <v>44921</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="21">
+    <row r="16" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A16" s="38"/>
       <c r="B16" s="64"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
-      <c r="E16" s="122" t="s">
+      <c r="E16" s="121" t="s">
         <v>141</v>
       </c>
       <c r="F16" s="57" t="s">
@@ -15332,7 +16303,7 @@
         <v>44921</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="73.5">
+    <row r="17" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="B17" s="64"/>
       <c r="C17" s="46"/>
       <c r="D17" s="46"/>
@@ -15352,12 +16323,12 @@
         <v>44921</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="73.5">
+    <row r="18" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="A18" s="38"/>
       <c r="B18" s="64" t="s">
         <v>213</v>
       </c>
-      <c r="C18" s="120" t="s">
+      <c r="C18" s="119" t="s">
         <v>199</v>
       </c>
       <c r="D18" s="46" t="s">
@@ -15379,7 +16350,7 @@
         <v>44921</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="52.5">
+    <row r="19" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B19" s="64"/>
       <c r="C19" s="46"/>
       <c r="D19" s="46"/>
@@ -15399,7 +16370,7 @@
         <v>44921</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="42">
+    <row r="20" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B20" s="64"/>
       <c r="C20" s="46"/>
       <c r="D20" s="46"/>
@@ -15419,7 +16390,7 @@
         <v>44921</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="52.5">
+    <row r="21" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B21" s="64"/>
       <c r="C21" s="46"/>
       <c r="D21" s="46"/>
@@ -15439,11 +16410,11 @@
         <v>44921</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="84">
+    <row r="22" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="B22" s="64"/>
       <c r="C22" s="46"/>
       <c r="D22" s="46"/>
-      <c r="E22" s="122" t="s">
+      <c r="E22" s="121" t="s">
         <v>201</v>
       </c>
       <c r="F22" s="46" t="s">
@@ -15459,11 +16430,11 @@
         <v>44921</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="84">
+    <row r="23" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="B23" s="64"/>
       <c r="C23" s="46"/>
       <c r="D23" s="46"/>
-      <c r="E23" s="122" t="s">
+      <c r="E23" s="121" t="s">
         <v>202</v>
       </c>
       <c r="F23" s="46" t="s">
@@ -15479,9 +16450,9 @@
         <v>44921</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="105">
+    <row r="24" spans="1:9" ht="105" x14ac:dyDescent="0.15">
       <c r="B24" s="64"/>
-      <c r="C24" s="120"/>
+      <c r="C24" s="119"/>
       <c r="D24" s="46"/>
       <c r="E24" s="46" t="s">
         <v>203</v>
@@ -15499,7 +16470,7 @@
         <v>44921</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="64"/>
       <c r="C25" s="46"/>
       <c r="D25" s="46"/>
@@ -15509,7 +16480,7 @@
       <c r="H25" s="46"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="68"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -15519,7 +16490,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="68"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
@@ -15529,7 +16500,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="68"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
@@ -15539,7 +16510,7 @@
       <c r="H28" s="46"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9" ht="14.25" thickBot="1">
+    <row r="29" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B29" s="72"/>
       <c r="C29" s="47"/>
       <c r="D29" s="47"/>
@@ -15549,7 +16520,7 @@
       <c r="H29" s="47"/>
       <c r="I29" s="77"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
       <c r="D30" s="35"/>
@@ -15559,7 +16530,7 @@
       <c r="H30" s="35"/>
       <c r="I30" s="35"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
@@ -15569,7 +16540,7 @@
       <c r="H31" s="35"/>
       <c r="I31" s="35"/>
     </row>
-    <row r="32" spans="1:9" ht="6" customHeight="1">
+    <row r="32" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="28"/>
       <c r="B32" s="28"/>
       <c r="C32" s="28"/>
@@ -15579,7 +16550,7 @@
       <c r="G32" s="35"/>
       <c r="H32" s="35"/>
     </row>
-    <row r="33" spans="1:9" ht="14.25">
+    <row r="33" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="32" t="s">
         <v>50</v>
       </c>
@@ -15589,7 +16560,7 @@
       <c r="H33" s="35"/>
       <c r="I33" s="35"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B34" s="35"/>
       <c r="C34" s="35"/>
       <c r="D34" s="35"/>
@@ -15599,7 +16570,7 @@
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
@@ -15609,7 +16580,7 @@
       <c r="H35" s="35"/>
       <c r="I35" s="35"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="35"/>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
@@ -15619,7 +16590,7 @@
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
@@ -15629,7 +16600,7 @@
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
@@ -15639,7 +16610,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
@@ -15657,7 +16628,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -15665,12 +16636,332 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF99CC"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
+    <col min="3" max="3" width="40.125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="21.625" style="27" customWidth="1"/>
+    <col min="7" max="7" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.125" style="27" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+    </row>
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B4" s="33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B5" s="25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B6" s="25"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B8" s="37" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="105" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="106" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="106" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="106" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="106" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="106" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="106" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="107" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+      <c r="A11" s="38"/>
+      <c r="B11" s="140" t="s">
+        <v>242</v>
+      </c>
+      <c r="C11" s="119" t="s">
+        <v>246</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>247</v>
+      </c>
+      <c r="E11" s="51" t="s">
+        <v>235</v>
+      </c>
+      <c r="F11" s="51" t="s">
+        <v>236</v>
+      </c>
+      <c r="G11" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="H11" s="51" t="s">
+        <v>237</v>
+      </c>
+      <c r="I11" s="78">
+        <v>45435</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="38"/>
+      <c r="B12" s="140" t="s">
+        <v>243</v>
+      </c>
+      <c r="C12" s="119" t="s">
+        <v>252</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="F12" s="51" t="s">
+        <v>236</v>
+      </c>
+      <c r="G12" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="H12" s="51" t="s">
+        <v>237</v>
+      </c>
+      <c r="I12" s="78">
+        <v>45435</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+      <c r="A13" s="38"/>
+      <c r="B13" s="140" t="s">
+        <v>244</v>
+      </c>
+      <c r="C13" s="119"/>
+      <c r="D13" s="57" t="s">
+        <v>239</v>
+      </c>
+      <c r="E13" s="57" t="s">
+        <v>249</v>
+      </c>
+      <c r="F13" s="51" t="s">
+        <v>236</v>
+      </c>
+      <c r="G13" s="46" t="s">
+        <v>179</v>
+      </c>
+      <c r="H13" s="46" t="s">
+        <v>237</v>
+      </c>
+      <c r="I13" s="76">
+        <v>45435</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
+      <c r="B14" s="140" t="s">
+        <v>245</v>
+      </c>
+      <c r="C14" s="51"/>
+      <c r="D14" s="57" t="s">
+        <v>240</v>
+      </c>
+      <c r="E14" s="57" t="s">
+        <v>250</v>
+      </c>
+      <c r="F14" s="51" t="s">
+        <v>238</v>
+      </c>
+      <c r="G14" s="46" t="s">
+        <v>179</v>
+      </c>
+      <c r="H14" s="46" t="s">
+        <v>237</v>
+      </c>
+      <c r="I14" s="76">
+        <v>45435</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="72"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="77"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+    </row>
+    <row r="18" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+    </row>
+    <row r="19" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A19" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B21" s="127" t="s">
+        <v>251</v>
+      </c>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11:G15">
+      <formula1>"OK,NG"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="3" width="9.125" style="27" customWidth="1"/>
@@ -15680,7 +16971,7 @@
     <col min="9" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="6" customHeight="1">
+    <row r="1" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -15690,51 +16981,51 @@
       <c r="G1" s="36"/>
       <c r="H1" s="36"/>
     </row>
-    <row r="2" spans="1:8" ht="17.25">
+    <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.25" thickBot="1">
+    <row r="4" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="33" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="B5" s="141" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B5" s="146" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="109" t="s">
+      <c r="C5" s="108" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="143" t="s">
+      <c r="D5" s="148" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="145" t="s">
+      <c r="E5" s="150" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="143" t="s">
+      <c r="F5" s="148" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="145" t="s">
+      <c r="G5" s="150" t="s">
         <v>56</v>
       </c>
-      <c r="H5" s="139" t="s">
+      <c r="H5" s="144" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.25" thickBot="1">
-      <c r="B6" s="142"/>
-      <c r="C6" s="110" t="s">
+    <row r="6" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="147"/>
+      <c r="C6" s="109" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="144"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="144"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="140"/>
-    </row>
-    <row r="7" spans="1:8" ht="31.5">
+      <c r="D6" s="149"/>
+      <c r="E6" s="151"/>
+      <c r="F6" s="149"/>
+      <c r="G6" s="151"/>
+      <c r="H6" s="145"/>
+    </row>
+    <row r="7" spans="1:8" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B7" s="66" t="s">
         <v>189</v>
       </c>
@@ -15757,7 +17048,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B8" s="68"/>
       <c r="C8" s="42"/>
       <c r="D8" s="44"/>
@@ -15766,7 +17057,7 @@
       <c r="G8" s="48"/>
       <c r="H8" s="69"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B9" s="68"/>
       <c r="C9" s="46"/>
       <c r="D9" s="42"/>
@@ -15775,7 +17066,7 @@
       <c r="G9" s="52"/>
       <c r="H9" s="69"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B10" s="68"/>
       <c r="C10" s="46"/>
       <c r="D10" s="46"/>
@@ -15784,7 +17075,7 @@
       <c r="G10" s="48"/>
       <c r="H10" s="69"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B11" s="68"/>
       <c r="C11" s="42"/>
       <c r="D11" s="46"/>
@@ -15793,7 +17084,7 @@
       <c r="G11" s="53"/>
       <c r="H11" s="70"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B12" s="68"/>
       <c r="C12" s="46"/>
       <c r="D12" s="46"/>
@@ -15802,7 +17093,7 @@
       <c r="G12" s="52"/>
       <c r="H12" s="70"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B13" s="68"/>
       <c r="C13" s="42"/>
       <c r="D13" s="54"/>
@@ -15811,7 +17102,7 @@
       <c r="G13" s="48"/>
       <c r="H13" s="71"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B14" s="68"/>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
@@ -15820,7 +17111,7 @@
       <c r="G14" s="52"/>
       <c r="H14" s="70"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B15" s="68"/>
       <c r="C15" s="42"/>
       <c r="D15" s="54"/>
@@ -15829,7 +17120,7 @@
       <c r="G15" s="48"/>
       <c r="H15" s="71"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B16" s="68"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
@@ -15838,7 +17129,7 @@
       <c r="G16" s="52"/>
       <c r="H16" s="69"/>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B17" s="68"/>
       <c r="C17" s="42"/>
       <c r="D17" s="54"/>
@@ -15847,7 +17138,7 @@
       <c r="G17" s="48"/>
       <c r="H17" s="70"/>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B18" s="68"/>
       <c r="C18" s="46"/>
       <c r="D18" s="42"/>
@@ -15856,7 +17147,7 @@
       <c r="G18" s="52"/>
       <c r="H18" s="69"/>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B19" s="68"/>
       <c r="C19" s="42"/>
       <c r="D19" s="46"/>
@@ -15865,7 +17156,7 @@
       <c r="G19" s="48"/>
       <c r="H19" s="70"/>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B20" s="68"/>
       <c r="C20" s="46"/>
       <c r="D20" s="42"/>
@@ -15874,7 +17165,7 @@
       <c r="G20" s="52"/>
       <c r="H20" s="69"/>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B21" s="68"/>
       <c r="C21" s="42"/>
       <c r="D21" s="46"/>
@@ -15883,7 +17174,7 @@
       <c r="G21" s="48"/>
       <c r="H21" s="70"/>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B22" s="68"/>
       <c r="C22" s="46"/>
       <c r="D22" s="46"/>
@@ -15892,7 +17183,7 @@
       <c r="G22" s="52"/>
       <c r="H22" s="69"/>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B23" s="66"/>
       <c r="C23" s="55"/>
       <c r="D23" s="55"/>
@@ -15901,7 +17192,7 @@
       <c r="G23" s="56"/>
       <c r="H23" s="69"/>
     </row>
-    <row r="24" spans="2:8" ht="14.25" thickBot="1">
+    <row r="24" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B24" s="72"/>
       <c r="C24" s="73"/>
       <c r="D24" s="73"/>
@@ -15931,14 +17222,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.625" style="27" customWidth="1"/>
     <col min="2" max="2" width="6.625" style="27" customWidth="1"/>
@@ -15949,7 +17240,7 @@
     <col min="8" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="6" customHeight="1">
+    <row r="1" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="28"/>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -15958,46 +17249,46 @@
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
     </row>
-    <row r="2" spans="1:7" ht="17.25">
+    <row r="2" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="6" customHeight="1">
+    <row r="4" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="28"/>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
     </row>
-    <row r="5" spans="1:7" ht="14.25">
+    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="32" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25" thickBot="1">
+    <row r="6" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17"/>
     </row>
-    <row r="7" spans="1:7" ht="14.25" thickBot="1">
+    <row r="7" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="59"/>
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="110" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="112" t="s">
+      <c r="C7" s="111" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="112" t="s">
+      <c r="D7" s="111" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="112" t="s">
+      <c r="E7" s="111" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="112" t="s">
+      <c r="F7" s="111" t="s">
         <v>64</v>
       </c>
-      <c r="G7" s="113" t="s">
+      <c r="G7" s="112" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.1" customHeight="1" thickBot="1">
+    <row r="8" spans="1:7" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="35"/>
       <c r="B8" s="60"/>
       <c r="C8" s="61"/>
@@ -16006,7 +17297,7 @@
       <c r="F8" s="62"/>
       <c r="G8" s="63"/>
     </row>
-    <row r="9" spans="1:7" ht="14.1" customHeight="1">
+    <row r="9" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="35"/>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
@@ -16015,44 +17306,44 @@
       <c r="F9" s="35"/>
       <c r="G9" s="35"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="17"/>
     </row>
-    <row r="11" spans="1:7" ht="6" customHeight="1">
+    <row r="11" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="28"/>
       <c r="B11" s="28"/>
       <c r="C11" s="28"/>
     </row>
-    <row r="12" spans="1:7" ht="14.25">
+    <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="32" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.25" thickBot="1">
+    <row r="13" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="17"/>
     </row>
-    <row r="14" spans="1:7" ht="14.25" thickBot="1">
+    <row r="14" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="59"/>
-      <c r="B14" s="111" t="s">
+      <c r="B14" s="110" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="114" t="s">
+      <c r="C14" s="113" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="114" t="s">
+      <c r="D14" s="113" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="114" t="s">
+      <c r="E14" s="113" t="s">
         <v>63</v>
       </c>
-      <c r="F14" s="114" t="s">
+      <c r="F14" s="113" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="113" t="s">
+      <c r="G14" s="112" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.1" customHeight="1">
+    <row r="15" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="35"/>
       <c r="B15" s="64"/>
       <c r="C15" s="39"/>
@@ -16061,7 +17352,7 @@
       <c r="F15" s="40"/>
       <c r="G15" s="65"/>
     </row>
-    <row r="16" spans="1:7" ht="14.1" customHeight="1">
+    <row r="16" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="35"/>
       <c r="B16" s="64"/>
       <c r="C16" s="39"/>
@@ -16070,7 +17361,7 @@
       <c r="F16" s="40"/>
       <c r="G16" s="65"/>
     </row>
-    <row r="17" spans="1:7" ht="14.1" customHeight="1">
+    <row r="17" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="35"/>
       <c r="B17" s="64"/>
       <c r="C17" s="39"/>
@@ -16079,7 +17370,7 @@
       <c r="F17" s="40"/>
       <c r="G17" s="65"/>
     </row>
-    <row r="18" spans="1:7" ht="14.1" customHeight="1" thickBot="1">
+    <row r="18" spans="1:7" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="35"/>
       <c r="B18" s="60"/>
       <c r="C18" s="61"/>
@@ -16103,20 +17394,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="15"/>
-    <col min="2" max="2" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" style="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.625" style="15" customWidth="1"/>
     <col min="4" max="4" width="7.625" style="15" customWidth="1"/>
     <col min="5" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="8.1" customHeight="1">
+    <row r="1" spans="1:9" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="14"/>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -16127,48 +17418,48 @@
       <c r="H1" s="14"/>
       <c r="I1" s="14"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="3.95" customHeight="1">
+    <row r="4" spans="1:9" ht="3.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
     </row>
-    <row r="5" spans="1:9" ht="14.25">
+    <row r="5" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
+    <row r="6" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
     </row>
-    <row r="7" spans="1:9" ht="14.25" thickBot="1">
-      <c r="B7" s="100" t="s">
+    <row r="7" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="101" t="s">
+      <c r="C7" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="101" t="s">
+      <c r="D7" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="102" t="s">
+      <c r="E7" s="101" t="s">
         <v>74</v>
       </c>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="103"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="B8" s="92">
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="102"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B8" s="91">
         <v>44904</v>
       </c>
       <c r="C8" s="20" t="s">
@@ -16183,10 +17474,10 @@
       <c r="F8" s="23"/>
       <c r="G8" s="23"/>
       <c r="H8" s="23"/>
-      <c r="I8" s="93"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="B9" s="92">
+      <c r="I8" s="92"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B9" s="91">
         <v>44984</v>
       </c>
       <c r="C9" s="20" t="s">
@@ -16201,29 +17492,47 @@
       <c r="F9" s="23"/>
       <c r="G9" s="23"/>
       <c r="H9" s="23"/>
-      <c r="I9" s="93"/>
-    </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
-      <c r="B10" s="94"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="97"/>
-      <c r="F10" s="98"/>
-      <c r="G10" s="98"/>
-      <c r="H10" s="98"/>
-      <c r="I10" s="99"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="17"/>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="I9" s="92"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B10" s="135">
+        <v>45561</v>
+      </c>
+      <c r="C10" s="136" t="s">
+        <v>232</v>
+      </c>
+      <c r="D10" s="137" t="s">
+        <v>230</v>
+      </c>
+      <c r="E10" s="138" t="s">
+        <v>254</v>
+      </c>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="92"/>
+    </row>
+    <row r="11" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="93"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="97"/>
+      <c r="I11" s="98"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="17"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="17"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="17"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -16244,13 +17553,13 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="13" width="6.625" style="27" customWidth="1"/>
     <col min="14" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="15" customFormat="1" ht="8.1" customHeight="1">
+    <row r="1" spans="1:13" s="15" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="14"/>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -16265,156 +17574,156 @@
       <c r="L1" s="14"/>
       <c r="M1" s="14"/>
     </row>
-    <row r="2" spans="1:13" ht="17.25">
+    <row r="2" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="14.45" customHeight="1"/>
-    <row r="4" spans="1:13" ht="6" customHeight="1">
+    <row r="3" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="28"/>
       <c r="B4" s="28"/>
     </row>
-    <row r="5" spans="1:13" ht="13.5" customHeight="1">
+    <row r="5" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="29" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="13.5" customHeight="1">
+    <row r="6" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="29"/>
     </row>
-    <row r="7" spans="1:13" ht="14.45" customHeight="1">
+    <row r="7" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="27" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="14.45" customHeight="1"/>
-    <row r="9" spans="1:13" ht="14.45" customHeight="1">
+    <row r="8" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="38" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="14.45" customHeight="1">
+    <row r="10" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="27" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="14.45" customHeight="1"/>
-    <row r="12" spans="1:13" ht="14.45" customHeight="1"/>
-    <row r="13" spans="1:13" ht="6" customHeight="1">
+    <row r="11" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="28"/>
       <c r="B13" s="28"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="29"/>
     </row>
-    <row r="16" spans="1:13" ht="14.45" customHeight="1">
+    <row r="16" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="27" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="14.45" customHeight="1">
+    <row r="17" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="14.45" customHeight="1"/>
-    <row r="19" spans="1:13" ht="14.45" customHeight="1">
+    <row r="18" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="27" t="s">
         <v>22</v>
       </c>
       <c r="J19" s="30"/>
     </row>
-    <row r="20" spans="1:13" ht="14.45" customHeight="1">
+    <row r="20" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="38" t="s">
         <v>82</v>
       </c>
       <c r="J20" s="30"/>
     </row>
-    <row r="21" spans="1:13" ht="14.45" customHeight="1">
+    <row r="21" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J21" s="30"/>
     </row>
-    <row r="22" spans="1:13" ht="14.45" customHeight="1">
+    <row r="22" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J22" s="30"/>
     </row>
-    <row r="23" spans="1:13" ht="6" customHeight="1">
+    <row r="23" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="28"/>
       <c r="B23" s="28"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24" s="29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="14.45" customHeight="1">
+    <row r="25" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J25" s="30"/>
     </row>
-    <row r="26" spans="1:13" ht="14.45" customHeight="1">
+    <row r="26" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="27" t="s">
         <v>24</v>
       </c>
       <c r="M26" s="30"/>
     </row>
-    <row r="27" spans="1:13" ht="14.45" customHeight="1">
+    <row r="27" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="27" t="s">
         <v>25</v>
       </c>
       <c r="M27" s="30"/>
     </row>
-    <row r="28" spans="1:13" ht="14.45" customHeight="1">
+    <row r="28" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="27" t="s">
         <v>26</v>
       </c>
       <c r="M28" s="30"/>
     </row>
-    <row r="29" spans="1:13" ht="14.45" customHeight="1">
+    <row r="29" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="27" t="s">
         <v>27</v>
       </c>
       <c r="M29" s="30"/>
     </row>
-    <row r="30" spans="1:13" ht="14.45" customHeight="1">
+    <row r="30" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="27" t="s">
         <v>28</v>
       </c>
       <c r="M30" s="30"/>
     </row>
-    <row r="31" spans="1:13" ht="14.45" customHeight="1">
+    <row r="31" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="27" t="s">
         <v>29</v>
       </c>
       <c r="M31" s="30"/>
     </row>
-    <row r="32" spans="1:13" ht="14.45" customHeight="1">
+    <row r="32" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="27" t="s">
         <v>30</v>
       </c>
       <c r="M32" s="30"/>
     </row>
-    <row r="33" spans="2:13" ht="14.45" customHeight="1">
+    <row r="33" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="27" t="s">
         <v>31</v>
       </c>
       <c r="M33" s="30"/>
     </row>
-    <row r="34" spans="2:13" ht="14.45" customHeight="1">
+    <row r="34" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="27" t="s">
         <v>32</v>
       </c>
       <c r="M34" s="30"/>
     </row>
-    <row r="35" spans="2:13" ht="14.45" customHeight="1">
+    <row r="35" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M35" s="30"/>
     </row>
-    <row r="36" spans="2:13" ht="14.45" customHeight="1">
+    <row r="36" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M36" s="30"/>
     </row>
-    <row r="37" spans="2:13" ht="14.45" customHeight="1">
+    <row r="37" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M37" s="30"/>
     </row>
   </sheetData>
@@ -16432,13 +17741,14 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4">
+    <tabColor rgb="FFFF99CC"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="2.75" style="82"/>
     <col min="4" max="4" width="22.125" style="82" customWidth="1"/>
@@ -16447,7 +17757,7 @@
     <col min="7" max="16384" width="2.75" style="82"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="6" customHeight="1">
+    <row r="1" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="81"/>
       <c r="B1" s="81"/>
       <c r="C1" s="81"/>
@@ -16455,7 +17765,7 @@
       <c r="E1" s="81"/>
       <c r="F1" s="81"/>
     </row>
-    <row r="2" spans="1:6" ht="17.25">
+    <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="80" t="s">
         <v>72</v>
       </c>
@@ -16465,7 +17775,7 @@
       <c r="E2" s="79"/>
       <c r="F2" s="79"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="79"/>
       <c r="B3" s="79"/>
       <c r="C3" s="83"/>
@@ -16473,7 +17783,7 @@
       <c r="E3" s="83"/>
       <c r="F3" s="83"/>
     </row>
-    <row r="4" spans="1:6" s="85" customFormat="1" ht="11.25">
+    <row r="4" spans="1:6" s="85" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A4" s="84"/>
       <c r="B4" s="84"/>
       <c r="C4" s="84"/>
@@ -16483,7 +17793,7 @@
       <c r="E4" s="84"/>
       <c r="F4" s="84"/>
     </row>
-    <row r="5" spans="1:6" s="85" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
+    <row r="5" spans="1:6" s="85" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="84"/>
       <c r="B5" s="84"/>
       <c r="C5" s="84"/>
@@ -16491,181 +17801,185 @@
       <c r="E5" s="84"/>
       <c r="F5" s="84"/>
     </row>
-    <row r="6" spans="1:6" s="85" customFormat="1" ht="12">
+    <row r="6" spans="1:6" s="85" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A6" s="84"/>
       <c r="B6" s="84"/>
       <c r="C6" s="84"/>
-      <c r="D6" s="104" t="s">
+      <c r="D6" s="103" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="105" t="s">
+      <c r="E6" s="104" t="s">
         <v>71</v>
       </c>
       <c r="F6" s="84"/>
     </row>
-    <row r="7" spans="1:6" s="85" customFormat="1">
+    <row r="7" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="84"/>
       <c r="B7" s="84"/>
       <c r="C7" s="84"/>
-      <c r="D7" s="124" t="s">
+      <c r="D7" s="123" t="s">
         <v>83</v>
       </c>
-      <c r="E7" s="87" t="s">
+      <c r="E7" s="86" t="s">
         <v>99</v>
       </c>
       <c r="F7" s="84"/>
     </row>
-    <row r="8" spans="1:6" s="85" customFormat="1">
+    <row r="8" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="84"/>
       <c r="B8" s="84"/>
       <c r="C8" s="84"/>
-      <c r="D8" s="124" t="s">
+      <c r="D8" s="123" t="s">
         <v>76</v>
       </c>
-      <c r="E8" s="87" t="s">
+      <c r="E8" s="86" t="s">
         <v>100</v>
       </c>
       <c r="F8" s="84"/>
     </row>
-    <row r="9" spans="1:6" s="85" customFormat="1">
+    <row r="9" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="84"/>
       <c r="B9" s="84"/>
       <c r="C9" s="84"/>
-      <c r="D9" s="124" t="s">
+      <c r="D9" s="123" t="s">
         <v>85</v>
       </c>
-      <c r="E9" s="88" t="s">
+      <c r="E9" s="87" t="s">
         <v>101</v>
       </c>
       <c r="F9" s="84"/>
     </row>
-    <row r="10" spans="1:6" s="85" customFormat="1">
+    <row r="10" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="84"/>
       <c r="B10" s="84"/>
       <c r="C10" s="84"/>
-      <c r="D10" s="124" t="s">
+      <c r="D10" s="123" t="s">
         <v>88</v>
       </c>
-      <c r="E10" s="87" t="s">
+      <c r="E10" s="86" t="s">
         <v>102</v>
       </c>
       <c r="F10" s="84"/>
     </row>
-    <row r="11" spans="1:6" s="85" customFormat="1">
+    <row r="11" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="84"/>
       <c r="B11" s="84"/>
       <c r="C11" s="84"/>
-      <c r="D11" s="124" t="s">
+      <c r="D11" s="123" t="s">
         <v>89</v>
       </c>
-      <c r="E11" s="87" t="s">
+      <c r="E11" s="86" t="s">
         <v>103</v>
       </c>
       <c r="F11" s="84"/>
     </row>
-    <row r="12" spans="1:6" s="85" customFormat="1">
+    <row r="12" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="84"/>
       <c r="B12" s="84"/>
       <c r="C12" s="84"/>
-      <c r="D12" s="124" t="s">
+      <c r="D12" s="123" t="s">
         <v>91</v>
       </c>
-      <c r="E12" s="87" t="s">
+      <c r="E12" s="86" t="s">
         <v>104</v>
       </c>
       <c r="F12" s="84"/>
     </row>
-    <row r="13" spans="1:6" s="85" customFormat="1">
+    <row r="13" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="84"/>
       <c r="B13" s="84"/>
       <c r="C13" s="84"/>
-      <c r="D13" s="124" t="s">
+      <c r="D13" s="123" t="s">
         <v>112</v>
       </c>
-      <c r="E13" s="87" t="s">
+      <c r="E13" s="86" t="s">
         <v>105</v>
       </c>
       <c r="F13" s="84"/>
     </row>
-    <row r="14" spans="1:6" s="85" customFormat="1">
+    <row r="14" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="84"/>
       <c r="B14" s="84"/>
       <c r="C14" s="84"/>
-      <c r="D14" s="124" t="s">
+      <c r="D14" s="123" t="s">
         <v>117</v>
       </c>
-      <c r="E14" s="87" t="s">
+      <c r="E14" s="86" t="s">
         <v>118</v>
       </c>
       <c r="F14" s="84"/>
     </row>
-    <row r="15" spans="1:6" s="85" customFormat="1">
+    <row r="15" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="84"/>
       <c r="B15" s="84"/>
       <c r="C15" s="84"/>
-      <c r="D15" s="124" t="s">
+      <c r="D15" s="123" t="s">
         <v>214</v>
       </c>
-      <c r="E15" s="87" t="s">
+      <c r="E15" s="86" t="s">
         <v>215</v>
       </c>
       <c r="F15" s="84"/>
     </row>
-    <row r="16" spans="1:6" s="85" customFormat="1">
+    <row r="16" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="84"/>
       <c r="B16" s="84"/>
       <c r="C16" s="84"/>
-      <c r="D16" s="124" t="s">
+      <c r="D16" s="123" t="s">
         <v>216</v>
       </c>
-      <c r="E16" s="88" t="s">
+      <c r="E16" s="87" t="s">
         <v>217</v>
       </c>
       <c r="F16" s="84"/>
     </row>
-    <row r="17" spans="1:6" s="85" customFormat="1">
+    <row r="17" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="84"/>
       <c r="B17" s="84"/>
       <c r="C17" s="84"/>
-      <c r="D17" s="124" t="s">
+      <c r="D17" s="123" t="s">
         <v>218</v>
       </c>
-      <c r="E17" s="87" t="s">
+      <c r="E17" s="86" t="s">
         <v>219</v>
       </c>
       <c r="F17" s="84"/>
     </row>
-    <row r="18" spans="1:6" s="85" customFormat="1" ht="11.25">
+    <row r="18" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="84"/>
       <c r="B18" s="84"/>
       <c r="C18" s="84"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="87"/>
+      <c r="D18" s="123" t="s">
+        <v>233</v>
+      </c>
+      <c r="E18" s="139" t="s">
+        <v>234</v>
+      </c>
       <c r="F18" s="84"/>
     </row>
-    <row r="19" spans="1:6" s="85" customFormat="1" ht="12" thickBot="1">
-      <c r="A19" s="89"/>
+    <row r="19" spans="1:6" s="85" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="88"/>
       <c r="B19" s="84"/>
       <c r="C19" s="84"/>
-      <c r="D19" s="90"/>
-      <c r="E19" s="91"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="90"/>
       <c r="F19" s="84"/>
     </row>
-    <row r="20" spans="1:6" s="85" customFormat="1" ht="11.25">
+    <row r="20" spans="1:6" s="85" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A20" s="84"/>
-      <c r="B20" s="89"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="89"/>
-    </row>
-    <row r="21" spans="1:6" s="85" customFormat="1" ht="11.25">
-      <c r="A21" s="89"/>
-      <c r="B21" s="89"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
+      <c r="B20" s="88"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="88"/>
+    </row>
+    <row r="21" spans="1:6" s="85" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A21" s="88"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="88"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -16681,9 +17995,10 @@
     <hyperlink ref="D15" location="'テスト仕様_テスト結果(テスト・シナリオ9)'!A1" display="シナリオ9"/>
     <hyperlink ref="D16" location="'テスト仕様_テスト結果(テスト・シナリオ10)'!A1" display="シナリオ10"/>
     <hyperlink ref="D17" location="'テスト仕様_テスト結果(テスト・シナリオ11)'!A1" display="シナリオ11"/>
+    <hyperlink ref="D18" location="'テスト仕様_テスト結果(テスト・シナリオ12)'!A1" display="シナリオ12"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="96" fitToHeight="0" orientation="landscape" cellComments="asDisplayed" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" cellComments="asDisplayed" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;8&amp;F&amp;R&amp;8XXX構築プロジェクト
 &lt;YYYY/MM/DD&gt;</oddHeader>
@@ -16700,7 +18015,7 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="20.625" style="27" customWidth="1"/>
@@ -16708,693 +18023,693 @@
     <col min="4" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="6" customHeight="1">
+    <row r="1" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
     </row>
-    <row r="2" spans="1:4" ht="14.25">
+    <row r="2" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B5" s="33"/>
     </row>
-    <row r="6" spans="1:4">
-      <c r="B6" s="129" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B6" s="128" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="25.5" customHeight="1">
-      <c r="B7" s="138" t="s">
+    <row r="7" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="143" t="s">
         <v>107</v>
       </c>
-      <c r="C7" s="138"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="B8" s="130"/>
-      <c r="C8" s="131"/>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="C7" s="143"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B8" s="129"/>
+      <c r="C8" s="130"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B9" s="34" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B10" s="33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="B11" s="130"/>
-      <c r="C11" s="131"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="B12" s="130" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B11" s="129"/>
+      <c r="C11" s="130"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B12" s="129" t="s">
         <v>110</v>
       </c>
-      <c r="C12" s="135">
+      <c r="C12" s="134">
         <v>1185055</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="14.25" thickBot="1">
-      <c r="B13" s="130"/>
-      <c r="C13" s="134">
+    <row r="13" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="129"/>
+      <c r="C13" s="133">
         <v>1187117</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="14.25" thickBot="1">
-      <c r="B14" s="115" t="s">
+    <row r="14" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="114" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="116" t="s">
+      <c r="C14" s="115" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="117" customFormat="1">
-      <c r="B15" s="118" t="s">
+    <row r="15" spans="1:4" s="116" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="117" t="s">
         <v>108</v>
       </c>
-      <c r="C15" s="119" t="s">
+      <c r="C15" s="118" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="32.25" thickBot="1">
-      <c r="B16" s="123" t="s">
+    <row r="16" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="122" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="123" t="s">
+      <c r="C16" s="122" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B17" s="33"/>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B18" s="34" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B19" s="33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="130"/>
-      <c r="C20" s="131"/>
-    </row>
-    <row r="21" spans="2:3" ht="14.25" thickBot="1">
-      <c r="B21" s="130" t="s">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B20" s="129"/>
+      <c r="C20" s="130"/>
+    </row>
+    <row r="21" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="129" t="s">
         <v>110</v>
       </c>
-      <c r="C21" s="132">
+      <c r="C21" s="131">
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="14.25" thickBot="1">
-      <c r="B22" s="115" t="s">
+    <row r="22" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="114" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="116" t="s">
+      <c r="C22" s="115" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="2:3" s="117" customFormat="1" ht="32.25" thickBot="1">
-      <c r="B23" s="123" t="s">
+    <row r="23" spans="2:3" s="116" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="122" t="s">
         <v>108</v>
       </c>
-      <c r="C23" s="125" t="s">
+      <c r="C23" s="124" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B24" s="33"/>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B25" s="34" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B26" s="33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="2:3">
-      <c r="B27" s="130"/>
-      <c r="C27" s="131"/>
-    </row>
-    <row r="28" spans="2:3">
-      <c r="B28" s="130" t="s">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B27" s="129"/>
+      <c r="C27" s="130"/>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B28" s="129" t="s">
         <v>110</v>
       </c>
-      <c r="C28" s="135">
+      <c r="C28" s="134">
         <v>1185133</v>
       </c>
     </row>
-    <row r="29" spans="2:3" ht="14.25" thickBot="1">
-      <c r="B29" s="130"/>
-      <c r="C29" s="134">
+    <row r="29" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="129"/>
+      <c r="C29" s="133">
         <v>1187119</v>
       </c>
     </row>
-    <row r="30" spans="2:3" ht="14.25" thickBot="1">
-      <c r="B30" s="115" t="s">
+    <row r="30" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="114" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="116" t="s">
+      <c r="C30" s="115" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="31" spans="2:3" s="117" customFormat="1" ht="31.5">
-      <c r="B31" s="133" t="s">
+    <row r="31" spans="2:3" s="116" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="B31" s="132" t="s">
         <v>108</v>
       </c>
-      <c r="C31" s="133" t="s">
+      <c r="C31" s="132" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="32" spans="2:3" ht="32.25" thickBot="1">
-      <c r="B32" s="123" t="s">
+    <row r="32" spans="2:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="122" t="s">
         <v>109</v>
       </c>
-      <c r="C32" s="123" t="s">
+      <c r="C32" s="122" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="2:3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B33" s="33"/>
     </row>
-    <row r="34" spans="2:3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B34" s="34" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="2:3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B35" s="33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="2:3">
-      <c r="B36" s="130"/>
-      <c r="C36" s="131"/>
-    </row>
-    <row r="37" spans="2:3">
-      <c r="B37" s="130" t="s">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B36" s="129"/>
+      <c r="C36" s="130"/>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B37" s="129" t="s">
         <v>110</v>
       </c>
-      <c r="C37" s="135">
+      <c r="C37" s="134">
         <v>1185135</v>
       </c>
     </row>
-    <row r="38" spans="2:3" ht="14.25" thickBot="1">
-      <c r="B38" s="130"/>
-      <c r="C38" s="134">
+    <row r="38" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="129"/>
+      <c r="C38" s="133">
         <v>1187123</v>
       </c>
     </row>
-    <row r="39" spans="2:3" ht="14.25" thickBot="1">
-      <c r="B39" s="115" t="s">
+    <row r="39" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="114" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="116" t="s">
+      <c r="C39" s="115" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="2:3" s="117" customFormat="1">
-      <c r="B40" s="118" t="s">
+    <row r="40" spans="2:3" s="116" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="117" t="s">
         <v>108</v>
       </c>
-      <c r="C40" s="119" t="s">
+      <c r="C40" s="118" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="41" spans="2:3" ht="32.25" thickBot="1">
-      <c r="B41" s="123" t="s">
+    <row r="41" spans="2:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="122" t="s">
         <v>109</v>
       </c>
-      <c r="C41" s="123" t="s">
+      <c r="C41" s="122" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="2:3">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B42" s="33"/>
     </row>
-    <row r="43" spans="2:3">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B43" s="34" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="2:3">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B44" s="33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="2:3">
-      <c r="B45" s="130"/>
-      <c r="C45" s="131"/>
-    </row>
-    <row r="46" spans="2:3" ht="14.25" thickBot="1">
-      <c r="B46" s="130" t="s">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B45" s="129"/>
+      <c r="C45" s="130"/>
+    </row>
+    <row r="46" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="129" t="s">
         <v>114</v>
       </c>
-      <c r="C46" s="132">
+      <c r="C46" s="131">
         <v>9999999</v>
       </c>
     </row>
-    <row r="47" spans="2:3" ht="14.25" thickBot="1">
-      <c r="B47" s="115" t="s">
+    <row r="47" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="114" t="s">
         <v>77</v>
       </c>
-      <c r="C47" s="116" t="s">
+      <c r="C47" s="115" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="48" spans="2:3" s="117" customFormat="1" ht="32.25" thickBot="1">
-      <c r="B48" s="123" t="s">
+    <row r="48" spans="2:3" s="116" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="122" t="s">
         <v>108</v>
       </c>
-      <c r="C48" s="125" t="s">
+      <c r="C48" s="124" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="49" spans="2:3">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B49" s="33"/>
     </row>
-    <row r="50" spans="2:3">
-      <c r="B50" s="130" t="s">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B50" s="129" t="s">
         <v>115</v>
       </c>
-      <c r="C50" s="135">
+      <c r="C50" s="134">
         <v>1185055</v>
       </c>
     </row>
-    <row r="51" spans="2:3" ht="14.25" thickBot="1">
-      <c r="B51" s="130"/>
-      <c r="C51" s="134">
+    <row r="51" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="129"/>
+      <c r="C51" s="133">
         <v>1187117</v>
       </c>
     </row>
-    <row r="52" spans="2:3" ht="14.25" thickBot="1">
-      <c r="B52" s="115" t="s">
+    <row r="52" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="114" t="s">
         <v>77</v>
       </c>
-      <c r="C52" s="116" t="s">
+      <c r="C52" s="115" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="53" spans="2:3" s="117" customFormat="1">
-      <c r="B53" s="118" t="s">
+    <row r="53" spans="2:3" s="116" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B53" s="117" t="s">
         <v>120</v>
       </c>
-      <c r="C53" s="119" t="s">
+      <c r="C53" s="118" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="54" spans="2:3" ht="32.25" thickBot="1">
-      <c r="B54" s="123" t="s">
+    <row r="54" spans="2:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="122" t="s">
         <v>109</v>
       </c>
-      <c r="C54" s="123" t="s">
+      <c r="C54" s="122" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="56" spans="2:3">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B56" s="34" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="57" spans="2:3">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B57" s="33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="2:3">
-      <c r="B58" s="130"/>
-      <c r="C58" s="131"/>
-    </row>
-    <row r="59" spans="2:3">
-      <c r="B59" s="130" t="s">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B58" s="129"/>
+      <c r="C58" s="130"/>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B59" s="129" t="s">
         <v>110</v>
       </c>
-      <c r="C59" s="135">
+      <c r="C59" s="134">
         <v>1185055</v>
       </c>
     </row>
-    <row r="60" spans="2:3" ht="14.25" thickBot="1">
-      <c r="B60" s="130"/>
-      <c r="C60" s="134">
+    <row r="60" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="129"/>
+      <c r="C60" s="133">
         <v>1187117</v>
       </c>
     </row>
-    <row r="61" spans="2:3" ht="14.25" thickBot="1">
-      <c r="B61" s="115" t="s">
+    <row r="61" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="114" t="s">
         <v>77</v>
       </c>
-      <c r="C61" s="116" t="s">
+      <c r="C61" s="115" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="62" spans="2:3" s="117" customFormat="1">
-      <c r="B62" s="118" t="s">
+    <row r="62" spans="2:3" s="116" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B62" s="117" t="s">
         <v>108</v>
       </c>
-      <c r="C62" s="119" t="s">
+      <c r="C62" s="118" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="63" spans="2:3" ht="32.25" thickBot="1">
-      <c r="B63" s="123" t="s">
+    <row r="63" spans="2:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="122" t="s">
         <v>109</v>
       </c>
-      <c r="C63" s="123" t="s">
+      <c r="C63" s="122" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="64" spans="2:3">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B64" s="35"/>
       <c r="C64" s="35"/>
     </row>
-    <row r="65" spans="2:3">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B65" s="34" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="66" spans="2:3">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B66" s="33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="67" spans="2:3">
-      <c r="B67" s="130"/>
-      <c r="C67" s="131"/>
-    </row>
-    <row r="68" spans="2:3">
-      <c r="B68" s="130" t="s">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B67" s="129"/>
+      <c r="C67" s="130"/>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B68" s="129" t="s">
         <v>110</v>
       </c>
-      <c r="C68" s="135">
+      <c r="C68" s="134">
         <v>1185055</v>
       </c>
     </row>
-    <row r="69" spans="2:3" ht="14.25" thickBot="1">
-      <c r="B69" s="130"/>
-      <c r="C69" s="134">
+    <row r="69" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="129"/>
+      <c r="C69" s="133">
         <v>1187117</v>
       </c>
     </row>
-    <row r="70" spans="2:3" ht="14.25" thickBot="1">
-      <c r="B70" s="115" t="s">
+    <row r="70" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="114" t="s">
         <v>77</v>
       </c>
-      <c r="C70" s="116" t="s">
+      <c r="C70" s="115" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="71" spans="2:3" s="117" customFormat="1">
-      <c r="B71" s="118" t="s">
+    <row r="71" spans="2:3" s="116" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B71" s="117" t="s">
         <v>108</v>
       </c>
-      <c r="C71" s="119" t="s">
+      <c r="C71" s="118" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="72" spans="2:3" ht="32.25" thickBot="1">
-      <c r="B72" s="123" t="s">
+    <row r="72" spans="2:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="122" t="s">
         <v>109</v>
       </c>
-      <c r="C72" s="123" t="s">
+      <c r="C72" s="122" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="73" spans="2:3">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B73" s="35"/>
       <c r="C73" s="35"/>
     </row>
-    <row r="74" spans="2:3">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B74" s="34" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="75" spans="2:3">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B75" s="33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="76" spans="2:3">
-      <c r="B76" s="130"/>
-      <c r="C76" s="131"/>
-    </row>
-    <row r="77" spans="2:3">
-      <c r="B77" s="130" t="s">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B76" s="129"/>
+      <c r="C76" s="130"/>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B77" s="129" t="s">
         <v>110</v>
       </c>
-      <c r="C77" s="135">
+      <c r="C77" s="134">
         <v>1185141</v>
       </c>
     </row>
-    <row r="78" spans="2:3" ht="14.25" thickBot="1">
-      <c r="B78" s="130"/>
-      <c r="C78" s="134">
+    <row r="78" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="129"/>
+      <c r="C78" s="133">
         <v>1187125</v>
       </c>
     </row>
-    <row r="79" spans="2:3" ht="14.25" thickBot="1">
-      <c r="B79" s="115" t="s">
+    <row r="79" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="114" t="s">
         <v>77</v>
       </c>
-      <c r="C79" s="116" t="s">
+      <c r="C79" s="115" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="80" spans="2:3" s="117" customFormat="1" ht="42">
-      <c r="B80" s="118" t="s">
+    <row r="80" spans="2:3" s="116" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+      <c r="B80" s="117" t="s">
         <v>108</v>
       </c>
-      <c r="C80" s="119" t="s">
+      <c r="C80" s="118" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="81" spans="2:3" ht="32.25" thickBot="1">
-      <c r="B81" s="123" t="s">
+    <row r="81" spans="2:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B81" s="122" t="s">
         <v>109</v>
       </c>
-      <c r="C81" s="123" t="s">
+      <c r="C81" s="122" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="82" spans="2:3">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B82" s="35"/>
       <c r="C82" s="35"/>
     </row>
-    <row r="83" spans="2:3">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B83" s="34" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="84" spans="2:3">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B84" s="33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="85" spans="2:3">
-      <c r="B85" s="130"/>
-      <c r="C85" s="131"/>
-    </row>
-    <row r="86" spans="2:3" ht="14.25" thickBot="1">
-      <c r="B86" s="130" t="s">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B85" s="129"/>
+      <c r="C85" s="130"/>
+    </row>
+    <row r="86" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B86" s="129" t="s">
         <v>110</v>
       </c>
-      <c r="C86" s="132">
+      <c r="C86" s="131">
         <v>1187117</v>
       </c>
     </row>
-    <row r="87" spans="2:3" ht="14.25" thickBot="1">
-      <c r="B87" s="115" t="s">
+    <row r="87" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B87" s="114" t="s">
         <v>77</v>
       </c>
-      <c r="C87" s="116" t="s">
+      <c r="C87" s="115" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="88" spans="2:3" s="117" customFormat="1">
-      <c r="B88" s="118" t="s">
+    <row r="88" spans="2:3" s="116" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B88" s="117" t="s">
         <v>108</v>
       </c>
-      <c r="C88" s="119" t="s">
+      <c r="C88" s="118" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="89" spans="2:3" s="117" customFormat="1" ht="21">
-      <c r="B89" s="118" t="s">
+    <row r="89" spans="2:3" s="116" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="B89" s="117" t="s">
         <v>221</v>
       </c>
-      <c r="C89" s="118" t="s">
+      <c r="C89" s="117" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="90" spans="2:3" ht="32.25" thickBot="1">
-      <c r="B90" s="123" t="s">
+    <row r="90" spans="2:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="122" t="s">
         <v>109</v>
       </c>
-      <c r="C90" s="123" t="s">
+      <c r="C90" s="122" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="91" spans="2:3">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B91" s="33"/>
     </row>
-    <row r="92" spans="2:3">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B92" s="34" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="93" spans="2:3">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B93" s="33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="94" spans="2:3">
-      <c r="B94" s="130"/>
-      <c r="C94" s="131"/>
-    </row>
-    <row r="95" spans="2:3" ht="14.25" thickBot="1">
-      <c r="B95" s="130" t="s">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B94" s="129"/>
+      <c r="C94" s="130"/>
+    </row>
+    <row r="95" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B95" s="129" t="s">
         <v>110</v>
       </c>
-      <c r="C95" s="132">
+      <c r="C95" s="131">
         <v>1187119</v>
       </c>
     </row>
-    <row r="96" spans="2:3" ht="14.25" thickBot="1">
-      <c r="B96" s="115" t="s">
+    <row r="96" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B96" s="114" t="s">
         <v>77</v>
       </c>
-      <c r="C96" s="116" t="s">
+      <c r="C96" s="115" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="97" spans="2:3" s="117" customFormat="1" ht="31.5">
-      <c r="B97" s="133" t="s">
+    <row r="97" spans="2:3" s="116" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="B97" s="132" t="s">
         <v>108</v>
       </c>
-      <c r="C97" s="133" t="s">
+      <c r="C97" s="132" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="98" spans="2:3" s="117" customFormat="1" ht="21">
-      <c r="B98" s="118" t="s">
+    <row r="98" spans="2:3" s="116" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="B98" s="117" t="s">
         <v>221</v>
       </c>
-      <c r="C98" s="118" t="s">
+      <c r="C98" s="117" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="99" spans="2:3" ht="32.25" thickBot="1">
-      <c r="B99" s="123" t="s">
+    <row r="99" spans="2:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B99" s="122" t="s">
         <v>109</v>
       </c>
-      <c r="C99" s="123" t="s">
+      <c r="C99" s="122" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="100" spans="2:3">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B100" s="33"/>
     </row>
-    <row r="101" spans="2:3">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B101" s="34" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="102" spans="2:3">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B102" s="33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="103" spans="2:3">
-      <c r="B103" s="130"/>
-      <c r="C103" s="131"/>
-    </row>
-    <row r="104" spans="2:3" ht="14.25" thickBot="1">
-      <c r="B104" s="130" t="s">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B103" s="129"/>
+      <c r="C103" s="130"/>
+    </row>
+    <row r="104" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B104" s="129" t="s">
         <v>110</v>
       </c>
-      <c r="C104" s="132">
+      <c r="C104" s="131">
         <v>9999999</v>
       </c>
     </row>
-    <row r="105" spans="2:3" ht="14.25" thickBot="1">
-      <c r="B105" s="115" t="s">
+    <row r="105" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B105" s="114" t="s">
         <v>77</v>
       </c>
-      <c r="C105" s="116" t="s">
+      <c r="C105" s="115" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="106" spans="2:3" s="117" customFormat="1" ht="32.25" thickBot="1">
-      <c r="B106" s="123" t="s">
+    <row r="106" spans="2:3" s="116" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B106" s="122" t="s">
         <v>108</v>
       </c>
-      <c r="C106" s="125" t="s">
+      <c r="C106" s="124" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="107" spans="2:3">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B107" s="33"/>
     </row>
-    <row r="108" spans="2:3" ht="14.25" thickBot="1">
-      <c r="B108" s="130" t="s">
+    <row r="108" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B108" s="129" t="s">
         <v>115</v>
       </c>
-      <c r="C108" s="132">
+      <c r="C108" s="131">
         <v>1187117</v>
       </c>
     </row>
-    <row r="109" spans="2:3" ht="14.25" thickBot="1">
-      <c r="B109" s="115" t="s">
+    <row r="109" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B109" s="114" t="s">
         <v>77</v>
       </c>
-      <c r="C109" s="116" t="s">
+      <c r="C109" s="115" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="110" spans="2:3" s="117" customFormat="1">
-      <c r="B110" s="118" t="s">
+    <row r="110" spans="2:3" s="116" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B110" s="117" t="s">
         <v>108</v>
       </c>
-      <c r="C110" s="119" t="s">
+      <c r="C110" s="118" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="111" spans="2:3" s="117" customFormat="1" ht="21">
-      <c r="B111" s="118" t="s">
+    <row r="111" spans="2:3" s="116" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="B111" s="117" t="s">
         <v>221</v>
       </c>
-      <c r="C111" s="118" t="s">
+      <c r="C111" s="117" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="112" spans="2:3" ht="32.25" thickBot="1">
-      <c r="B112" s="123" t="s">
+    <row r="112" spans="2:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B112" s="122" t="s">
         <v>109</v>
       </c>
-      <c r="C112" s="123" t="s">
+      <c r="C112" s="122" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="114" spans="2:3">
+    <row r="114" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B114" s="35"/>
       <c r="C114" s="35"/>
     </row>
-    <row r="115" spans="2:3">
+    <row r="115" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B115" s="35"/>
       <c r="C115" s="35"/>
     </row>
@@ -17423,10 +18738,10 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -17439,7 +18754,7 @@
     <col min="10" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -17450,61 +18765,61 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
-      <c r="B10" s="106" t="s">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="107" t="s">
+      <c r="C10" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="107" t="s">
+      <c r="D10" s="106" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="107" t="s">
+      <c r="E10" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="107" t="s">
+      <c r="F10" s="106" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="107" t="s">
+      <c r="G10" s="106" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="107" t="s">
+      <c r="H10" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="I10" s="108" t="s">
+      <c r="I10" s="107" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21">
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
       <c r="B11" s="64" t="s">
         <v>81</v>
@@ -17519,12 +18834,12 @@
       <c r="H11" s="51"/>
       <c r="I11" s="78"/>
     </row>
-    <row r="12" spans="1:9" ht="73.5">
+    <row r="12" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="A12" s="38"/>
       <c r="B12" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="120" t="s">
+      <c r="C12" s="119" t="s">
         <v>175</v>
       </c>
       <c r="D12" s="46" t="s">
@@ -17546,7 +18861,7 @@
         <v>44908</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="63">
+    <row r="13" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="A13" s="38"/>
       <c r="B13" s="64"/>
       <c r="C13" s="46"/>
@@ -17567,7 +18882,7 @@
         <v>44908</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="42">
+    <row r="14" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B14" s="64"/>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
@@ -17587,7 +18902,7 @@
         <v>44908</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="52.5">
+    <row r="15" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A15" s="38"/>
       <c r="B15" s="64"/>
       <c r="C15" s="46"/>
@@ -17608,11 +18923,11 @@
         <v>44908</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="84">
+    <row r="16" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="B16" s="64"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
-      <c r="E16" s="122" t="s">
+      <c r="E16" s="121" t="s">
         <v>146</v>
       </c>
       <c r="F16" s="46" t="s">
@@ -17628,14 +18943,14 @@
         <v>44908</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="84">
+    <row r="17" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="B17" s="64"/>
       <c r="C17" s="46"/>
       <c r="D17" s="46"/>
-      <c r="E17" s="122" t="s">
+      <c r="E17" s="121" t="s">
         <v>145</v>
       </c>
-      <c r="F17" s="122" t="s">
+      <c r="F17" s="121" t="s">
         <v>185</v>
       </c>
       <c r="G17" s="46" t="s">
@@ -17648,7 +18963,7 @@
         <v>44908</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B18" s="64"/>
       <c r="C18" s="46"/>
       <c r="D18" s="46"/>
@@ -17658,7 +18973,7 @@
       <c r="H18" s="46"/>
       <c r="I18" s="76"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" s="64"/>
       <c r="C19" s="46"/>
       <c r="D19" s="46"/>
@@ -17668,17 +18983,17 @@
       <c r="H19" s="46"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="64"/>
       <c r="C20" s="46"/>
       <c r="D20" s="46"/>
-      <c r="E20" s="122"/>
+      <c r="E20" s="121"/>
       <c r="F20" s="46"/>
       <c r="G20" s="46"/>
       <c r="H20" s="46"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="38"/>
       <c r="B21" s="64"/>
       <c r="C21" s="46"/>
@@ -17689,7 +19004,7 @@
       <c r="H21" s="57"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="38"/>
       <c r="B22" s="64"/>
       <c r="C22" s="46"/>
@@ -17700,17 +19015,17 @@
       <c r="H22" s="57"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" s="64"/>
       <c r="C23" s="46"/>
       <c r="D23" s="46"/>
-      <c r="E23" s="122"/>
+      <c r="E23" s="121"/>
       <c r="F23" s="46"/>
       <c r="G23" s="46"/>
       <c r="H23" s="46"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="38"/>
       <c r="B24" s="64"/>
       <c r="C24" s="46"/>
@@ -17721,7 +19036,7 @@
       <c r="H24" s="57"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="38"/>
       <c r="B25" s="64"/>
       <c r="C25" s="46"/>
@@ -17732,69 +19047,69 @@
       <c r="H25" s="57"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="64"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
-      <c r="E26" s="122"/>
+      <c r="E26" s="121"/>
       <c r="F26" s="46"/>
       <c r="G26" s="46"/>
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="64"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
-      <c r="E27" s="122"/>
+      <c r="E27" s="121"/>
       <c r="F27" s="46"/>
       <c r="G27" s="46"/>
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="64"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
-      <c r="E28" s="122"/>
+      <c r="E28" s="121"/>
       <c r="F28" s="46"/>
       <c r="G28" s="46"/>
       <c r="H28" s="46"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" s="64"/>
       <c r="C29" s="46"/>
       <c r="D29" s="46"/>
-      <c r="E29" s="122"/>
+      <c r="E29" s="121"/>
       <c r="F29" s="46"/>
       <c r="G29" s="46"/>
       <c r="H29" s="46"/>
       <c r="I29" s="76"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="64"/>
       <c r="C30" s="46"/>
       <c r="D30" s="46"/>
-      <c r="E30" s="122"/>
+      <c r="E30" s="121"/>
       <c r="F30" s="46"/>
       <c r="G30" s="46"/>
       <c r="H30" s="46"/>
       <c r="I30" s="76"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="64"/>
       <c r="C31" s="46"/>
       <c r="D31" s="46"/>
-      <c r="E31" s="122"/>
+      <c r="E31" s="121"/>
       <c r="F31" s="46"/>
       <c r="G31" s="46"/>
       <c r="H31" s="46"/>
       <c r="I31" s="76"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="64"/>
-      <c r="C32" s="120"/>
+      <c r="C32" s="119"/>
       <c r="D32" s="46"/>
       <c r="E32" s="51"/>
       <c r="F32" s="46"/>
@@ -17802,7 +19117,7 @@
       <c r="H32" s="46"/>
       <c r="I32" s="76"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B33" s="64"/>
       <c r="C33" s="46"/>
       <c r="D33" s="46"/>
@@ -17812,7 +19127,7 @@
       <c r="H33" s="46"/>
       <c r="I33" s="76"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B34" s="64"/>
       <c r="C34" s="46"/>
       <c r="D34" s="46"/>
@@ -17822,7 +19137,7 @@
       <c r="H34" s="46"/>
       <c r="I34" s="76"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="68"/>
       <c r="C35" s="46"/>
       <c r="D35" s="46"/>
@@ -17832,7 +19147,7 @@
       <c r="H35" s="46"/>
       <c r="I35" s="76"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="68"/>
       <c r="C36" s="46"/>
       <c r="D36" s="46"/>
@@ -17842,7 +19157,7 @@
       <c r="H36" s="46"/>
       <c r="I36" s="76"/>
     </row>
-    <row r="37" spans="1:9" ht="14.25" thickBot="1">
+    <row r="37" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B37" s="72"/>
       <c r="C37" s="47"/>
       <c r="D37" s="47"/>
@@ -17852,7 +19167,7 @@
       <c r="H37" s="47"/>
       <c r="I37" s="77"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
@@ -17862,7 +19177,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
@@ -17872,7 +19187,7 @@
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
     </row>
-    <row r="40" spans="1:9" ht="6" customHeight="1">
+    <row r="40" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="28"/>
       <c r="B40" s="28"/>
       <c r="C40" s="28"/>
@@ -17882,7 +19197,7 @@
       <c r="G40" s="35"/>
       <c r="H40" s="35"/>
     </row>
-    <row r="41" spans="1:9" ht="14.25">
+    <row r="41" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A41" s="32" t="s">
         <v>50</v>
       </c>
@@ -17892,7 +19207,7 @@
       <c r="H41" s="35"/>
       <c r="I41" s="35"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B42" s="35"/>
       <c r="C42" s="35"/>
       <c r="D42" s="35"/>
@@ -17902,8 +19217,8 @@
       <c r="H42" s="35"/>
       <c r="I42" s="35"/>
     </row>
-    <row r="43" spans="1:9">
-      <c r="B43" s="128" t="s">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B43" s="127" t="s">
         <v>94</v>
       </c>
       <c r="C43" s="35"/>
@@ -17914,7 +19229,7 @@
       <c r="H43" s="35"/>
       <c r="I43" s="35"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B44" s="35"/>
       <c r="C44" s="35"/>
       <c r="D44" s="35"/>
@@ -17924,7 +19239,7 @@
       <c r="H44" s="35"/>
       <c r="I44" s="35"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B45" s="35"/>
       <c r="C45" s="35"/>
       <c r="D45" s="35"/>
@@ -17934,7 +19249,7 @@
       <c r="H45" s="35"/>
       <c r="I45" s="35"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B46" s="35"/>
       <c r="C46" s="35"/>
       <c r="D46" s="35"/>
@@ -17944,7 +19259,7 @@
       <c r="H46" s="35"/>
       <c r="I46" s="35"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B47" s="35"/>
       <c r="C47" s="35"/>
       <c r="D47" s="35"/>
@@ -17962,7 +19277,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -17980,7 +19295,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -17993,7 +19308,7 @@
     <col min="10" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -18004,61 +19319,61 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
-      <c r="B10" s="106" t="s">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="107" t="s">
+      <c r="C10" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="107" t="s">
+      <c r="D10" s="106" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="107" t="s">
+      <c r="E10" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="107" t="s">
+      <c r="F10" s="106" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="107" t="s">
+      <c r="G10" s="106" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="107" t="s">
+      <c r="H10" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="I10" s="108" t="s">
+      <c r="I10" s="107" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21">
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
       <c r="B11" s="64" t="s">
         <v>124</v>
@@ -18073,12 +19388,12 @@
       <c r="H11" s="51"/>
       <c r="I11" s="78"/>
     </row>
-    <row r="12" spans="1:9" ht="73.5">
+    <row r="12" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="A12" s="38"/>
       <c r="B12" s="64" t="s">
         <v>125</v>
       </c>
-      <c r="C12" s="120" t="s">
+      <c r="C12" s="119" t="s">
         <v>126</v>
       </c>
       <c r="D12" s="46" t="s">
@@ -18100,7 +19415,7 @@
         <v>44908</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="52.5">
+    <row r="13" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A13" s="38"/>
       <c r="B13" s="64"/>
       <c r="C13" s="46"/>
@@ -18121,7 +19436,7 @@
         <v>44908</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="52.5">
+    <row r="14" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A14" s="38"/>
       <c r="B14" s="64"/>
       <c r="C14" s="46"/>
@@ -18142,11 +19457,11 @@
         <v>44908</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="31.5">
+    <row r="15" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B15" s="64"/>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
-      <c r="E15" s="122" t="s">
+      <c r="E15" s="121" t="s">
         <v>129</v>
       </c>
       <c r="F15" s="46" t="s">
@@ -18162,67 +19477,67 @@
         <v>44908</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B16" s="64"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
-      <c r="E16" s="122"/>
-      <c r="F16" s="122"/>
+      <c r="E16" s="121"/>
+      <c r="F16" s="121"/>
       <c r="G16" s="46"/>
       <c r="H16" s="46"/>
       <c r="I16" s="76"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B17" s="64"/>
       <c r="C17" s="46"/>
       <c r="D17" s="46"/>
-      <c r="E17" s="122"/>
+      <c r="E17" s="121"/>
       <c r="F17" s="46"/>
       <c r="G17" s="46"/>
       <c r="H17" s="46"/>
       <c r="I17" s="76"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B18" s="64"/>
       <c r="C18" s="46"/>
       <c r="D18" s="46"/>
-      <c r="E18" s="122"/>
+      <c r="E18" s="121"/>
       <c r="F18" s="46"/>
       <c r="G18" s="46"/>
       <c r="H18" s="46"/>
       <c r="I18" s="76"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" s="64"/>
       <c r="C19" s="46"/>
       <c r="D19" s="46"/>
-      <c r="E19" s="122"/>
+      <c r="E19" s="121"/>
       <c r="F19" s="46"/>
       <c r="G19" s="46"/>
       <c r="H19" s="46"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="64"/>
       <c r="C20" s="46"/>
       <c r="D20" s="46"/>
-      <c r="E20" s="122"/>
+      <c r="E20" s="121"/>
       <c r="F20" s="46"/>
       <c r="G20" s="46"/>
       <c r="H20" s="46"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B21" s="64"/>
       <c r="C21" s="46"/>
       <c r="D21" s="46"/>
-      <c r="E21" s="122"/>
+      <c r="E21" s="121"/>
       <c r="F21" s="46"/>
       <c r="G21" s="46"/>
       <c r="H21" s="46"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B22" s="64"/>
       <c r="C22" s="46"/>
       <c r="D22" s="46"/>
@@ -18232,17 +19547,17 @@
       <c r="H22" s="46"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" s="64"/>
       <c r="C23" s="46"/>
       <c r="D23" s="46"/>
-      <c r="E23" s="122"/>
+      <c r="E23" s="121"/>
       <c r="F23" s="46"/>
       <c r="G23" s="46"/>
       <c r="H23" s="46"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="38"/>
       <c r="B24" s="64"/>
       <c r="C24" s="46"/>
@@ -18253,7 +19568,7 @@
       <c r="H24" s="57"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="38"/>
       <c r="B25" s="64"/>
       <c r="C25" s="46"/>
@@ -18264,17 +19579,17 @@
       <c r="H25" s="57"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="64"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
-      <c r="E26" s="122"/>
+      <c r="E26" s="121"/>
       <c r="F26" s="46"/>
       <c r="G26" s="46"/>
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="38"/>
       <c r="B27" s="64"/>
       <c r="C27" s="46"/>
@@ -18285,7 +19600,7 @@
       <c r="H27" s="57"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="38"/>
       <c r="B28" s="64"/>
       <c r="C28" s="46"/>
@@ -18296,69 +19611,69 @@
       <c r="H28" s="57"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" s="64"/>
       <c r="C29" s="46"/>
       <c r="D29" s="46"/>
-      <c r="E29" s="122"/>
+      <c r="E29" s="121"/>
       <c r="F29" s="46"/>
       <c r="G29" s="46"/>
       <c r="H29" s="46"/>
       <c r="I29" s="76"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="64"/>
       <c r="C30" s="46"/>
       <c r="D30" s="46"/>
-      <c r="E30" s="122"/>
+      <c r="E30" s="121"/>
       <c r="F30" s="46"/>
       <c r="G30" s="46"/>
       <c r="H30" s="46"/>
       <c r="I30" s="76"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="64"/>
       <c r="C31" s="46"/>
       <c r="D31" s="46"/>
-      <c r="E31" s="122"/>
+      <c r="E31" s="121"/>
       <c r="F31" s="46"/>
       <c r="G31" s="46"/>
       <c r="H31" s="46"/>
       <c r="I31" s="76"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="64"/>
       <c r="C32" s="46"/>
       <c r="D32" s="46"/>
-      <c r="E32" s="122"/>
+      <c r="E32" s="121"/>
       <c r="F32" s="46"/>
       <c r="G32" s="46"/>
       <c r="H32" s="46"/>
       <c r="I32" s="76"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B33" s="64"/>
       <c r="C33" s="46"/>
       <c r="D33" s="46"/>
-      <c r="E33" s="122"/>
+      <c r="E33" s="121"/>
       <c r="F33" s="46"/>
       <c r="G33" s="46"/>
       <c r="H33" s="46"/>
       <c r="I33" s="76"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B34" s="64"/>
       <c r="C34" s="46"/>
       <c r="D34" s="46"/>
-      <c r="E34" s="122"/>
+      <c r="E34" s="121"/>
       <c r="F34" s="46"/>
       <c r="G34" s="46"/>
       <c r="H34" s="46"/>
       <c r="I34" s="76"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="64"/>
-      <c r="C35" s="120"/>
+      <c r="C35" s="119"/>
       <c r="D35" s="46"/>
       <c r="E35" s="51"/>
       <c r="F35" s="46"/>
@@ -18366,7 +19681,7 @@
       <c r="H35" s="46"/>
       <c r="I35" s="76"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="64"/>
       <c r="C36" s="46"/>
       <c r="D36" s="46"/>
@@ -18376,7 +19691,7 @@
       <c r="H36" s="46"/>
       <c r="I36" s="76"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="68"/>
       <c r="C37" s="46"/>
       <c r="D37" s="46"/>
@@ -18386,7 +19701,7 @@
       <c r="H37" s="46"/>
       <c r="I37" s="76"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="68"/>
       <c r="C38" s="46"/>
       <c r="D38" s="46"/>
@@ -18396,7 +19711,7 @@
       <c r="H38" s="46"/>
       <c r="I38" s="76"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="68"/>
       <c r="C39" s="46"/>
       <c r="D39" s="46"/>
@@ -18406,7 +19721,7 @@
       <c r="H39" s="46"/>
       <c r="I39" s="76"/>
     </row>
-    <row r="40" spans="1:9" ht="14.25" thickBot="1">
+    <row r="40" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B40" s="72"/>
       <c r="C40" s="47"/>
       <c r="D40" s="47"/>
@@ -18416,7 +19731,7 @@
       <c r="H40" s="47"/>
       <c r="I40" s="77"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B41" s="35"/>
       <c r="C41" s="35"/>
       <c r="D41" s="35"/>
@@ -18426,7 +19741,7 @@
       <c r="H41" s="35"/>
       <c r="I41" s="35"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B42" s="35"/>
       <c r="C42" s="35"/>
       <c r="D42" s="35"/>
@@ -18436,7 +19751,7 @@
       <c r="H42" s="35"/>
       <c r="I42" s="35"/>
     </row>
-    <row r="43" spans="1:9" ht="6" customHeight="1">
+    <row r="43" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="28"/>
       <c r="B43" s="28"/>
       <c r="C43" s="28"/>
@@ -18446,7 +19761,7 @@
       <c r="G43" s="35"/>
       <c r="H43" s="35"/>
     </row>
-    <row r="44" spans="1:9" ht="14.25">
+    <row r="44" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A44" s="32" t="s">
         <v>50</v>
       </c>
@@ -18456,7 +19771,7 @@
       <c r="H44" s="35"/>
       <c r="I44" s="35"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B45" s="35"/>
       <c r="C45" s="35"/>
       <c r="D45" s="35"/>
@@ -18466,7 +19781,7 @@
       <c r="H45" s="35"/>
       <c r="I45" s="35"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B46" s="35"/>
       <c r="C46" s="35"/>
       <c r="D46" s="35"/>
@@ -18476,7 +19791,7 @@
       <c r="H46" s="35"/>
       <c r="I46" s="35"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B47" s="35"/>
       <c r="C47" s="35"/>
       <c r="D47" s="35"/>
@@ -18486,7 +19801,7 @@
       <c r="H47" s="35"/>
       <c r="I47" s="35"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B48" s="35"/>
       <c r="C48" s="35"/>
       <c r="D48" s="35"/>
@@ -18496,7 +19811,7 @@
       <c r="H48" s="35"/>
       <c r="I48" s="35"/>
     </row>
-    <row r="49" spans="2:9">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B49" s="35"/>
       <c r="C49" s="35"/>
       <c r="D49" s="35"/>
@@ -18506,7 +19821,7 @@
       <c r="H49" s="35"/>
       <c r="I49" s="35"/>
     </row>
-    <row r="50" spans="2:9">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B50" s="35"/>
       <c r="C50" s="35"/>
       <c r="D50" s="35"/>
@@ -18524,7 +19839,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -18542,7 +19857,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -18555,7 +19870,7 @@
     <col min="10" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -18566,61 +19881,61 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
-      <c r="B10" s="106" t="s">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="107" t="s">
+      <c r="C10" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="107" t="s">
+      <c r="D10" s="106" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="107" t="s">
+      <c r="E10" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="107" t="s">
+      <c r="F10" s="106" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="107" t="s">
+      <c r="G10" s="106" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="107" t="s">
+      <c r="H10" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="I10" s="108" t="s">
+      <c r="I10" s="107" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21">
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
       <c r="B11" s="64" t="s">
         <v>130</v>
@@ -18630,16 +19945,16 @@
       </c>
       <c r="D11" s="46"/>
       <c r="E11" s="46"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="127"/>
-    </row>
-    <row r="12" spans="1:9" ht="73.5">
+      <c r="F11" s="120"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="126"/>
+    </row>
+    <row r="12" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="B12" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="C12" s="120" t="s">
+      <c r="C12" s="119" t="s">
         <v>171</v>
       </c>
       <c r="D12" s="46" t="s">
@@ -18661,14 +19976,14 @@
         <v>44908</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="63">
+    <row r="13" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="B13" s="64"/>
       <c r="C13" s="46"/>
       <c r="D13" s="46"/>
       <c r="E13" s="57" t="s">
         <v>172</v>
       </c>
-      <c r="F13" s="122" t="s">
+      <c r="F13" s="121" t="s">
         <v>177</v>
       </c>
       <c r="G13" s="46" t="s">
@@ -18681,7 +19996,7 @@
         <v>44908</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="52.5">
+    <row r="14" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B14" s="64"/>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
@@ -18701,11 +20016,11 @@
         <v>44908</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="31.5">
+    <row r="15" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B15" s="64"/>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
-      <c r="E15" s="122" t="s">
+      <c r="E15" s="121" t="s">
         <v>129</v>
       </c>
       <c r="F15" s="46" t="s">
@@ -18721,143 +20036,143 @@
         <v>44908</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B16" s="64"/>
       <c r="C16" s="46"/>
-      <c r="D16" s="122"/>
-      <c r="E16" s="122"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="121"/>
       <c r="F16" s="46"/>
       <c r="G16" s="46"/>
       <c r="H16" s="46"/>
       <c r="I16" s="76"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B17" s="64"/>
       <c r="C17" s="46"/>
-      <c r="D17" s="122"/>
-      <c r="E17" s="122"/>
+      <c r="D17" s="121"/>
+      <c r="E17" s="121"/>
       <c r="F17" s="46"/>
       <c r="G17" s="46"/>
       <c r="H17" s="46"/>
       <c r="I17" s="76"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="38"/>
       <c r="B18" s="64"/>
       <c r="C18" s="46"/>
-      <c r="D18" s="122"/>
-      <c r="E18" s="122"/>
+      <c r="D18" s="121"/>
+      <c r="E18" s="121"/>
       <c r="F18" s="57"/>
       <c r="G18" s="57"/>
       <c r="H18" s="57"/>
       <c r="I18" s="76"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="38"/>
       <c r="B19" s="64"/>
       <c r="C19" s="46"/>
-      <c r="D19" s="122"/>
+      <c r="D19" s="121"/>
       <c r="E19" s="46"/>
       <c r="F19" s="57"/>
       <c r="G19" s="57"/>
       <c r="H19" s="57"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="64"/>
       <c r="C20" s="46"/>
-      <c r="D20" s="122"/>
-      <c r="E20" s="122"/>
+      <c r="D20" s="121"/>
+      <c r="E20" s="121"/>
       <c r="F20" s="46"/>
       <c r="G20" s="46"/>
       <c r="H20" s="46"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="38"/>
       <c r="B21" s="64"/>
       <c r="C21" s="46"/>
-      <c r="D21" s="122"/>
-      <c r="E21" s="122"/>
+      <c r="D21" s="121"/>
+      <c r="E21" s="121"/>
       <c r="F21" s="57"/>
       <c r="G21" s="57"/>
       <c r="H21" s="57"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="38"/>
       <c r="B22" s="64"/>
       <c r="C22" s="46"/>
-      <c r="D22" s="122"/>
+      <c r="D22" s="121"/>
       <c r="E22" s="46"/>
       <c r="F22" s="57"/>
       <c r="G22" s="57"/>
       <c r="H22" s="57"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" s="64"/>
       <c r="C23" s="46"/>
-      <c r="D23" s="122"/>
-      <c r="E23" s="122"/>
+      <c r="D23" s="121"/>
+      <c r="E23" s="121"/>
       <c r="F23" s="46"/>
       <c r="G23" s="46"/>
       <c r="H23" s="46"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B24" s="64"/>
       <c r="C24" s="46"/>
       <c r="D24" s="46"/>
-      <c r="E24" s="122"/>
+      <c r="E24" s="121"/>
       <c r="F24" s="46"/>
       <c r="G24" s="46"/>
       <c r="H24" s="46"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="64"/>
       <c r="C25" s="46"/>
       <c r="D25" s="46"/>
-      <c r="E25" s="122"/>
+      <c r="E25" s="121"/>
       <c r="F25" s="46"/>
       <c r="G25" s="46"/>
       <c r="H25" s="46"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="64"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
-      <c r="E26" s="122"/>
+      <c r="E26" s="121"/>
       <c r="F26" s="46"/>
       <c r="G26" s="46"/>
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="64"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
-      <c r="E27" s="122"/>
+      <c r="E27" s="121"/>
       <c r="F27" s="46"/>
       <c r="G27" s="46"/>
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="64"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
-      <c r="E28" s="122"/>
+      <c r="E28" s="121"/>
       <c r="F28" s="46"/>
       <c r="G28" s="46"/>
       <c r="H28" s="46"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" s="64"/>
-      <c r="C29" s="120"/>
+      <c r="C29" s="119"/>
       <c r="D29" s="46"/>
       <c r="E29" s="51"/>
       <c r="F29" s="46"/>
@@ -18865,7 +20180,7 @@
       <c r="H29" s="46"/>
       <c r="I29" s="76"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="64"/>
       <c r="C30" s="46"/>
       <c r="D30" s="46"/>
@@ -18875,7 +20190,7 @@
       <c r="H30" s="46"/>
       <c r="I30" s="76"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="68"/>
       <c r="C31" s="46"/>
       <c r="D31" s="46"/>
@@ -18885,7 +20200,7 @@
       <c r="H31" s="46"/>
       <c r="I31" s="76"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="68"/>
       <c r="C32" s="46"/>
       <c r="D32" s="46"/>
@@ -18895,7 +20210,7 @@
       <c r="H32" s="46"/>
       <c r="I32" s="76"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B33" s="68"/>
       <c r="C33" s="46"/>
       <c r="D33" s="46"/>
@@ -18905,7 +20220,7 @@
       <c r="H33" s="46"/>
       <c r="I33" s="76"/>
     </row>
-    <row r="34" spans="1:9" ht="14.25" thickBot="1">
+    <row r="34" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B34" s="72"/>
       <c r="C34" s="47"/>
       <c r="D34" s="47"/>
@@ -18915,7 +20230,7 @@
       <c r="H34" s="47"/>
       <c r="I34" s="77"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
@@ -18925,7 +20240,7 @@
       <c r="H35" s="35"/>
       <c r="I35" s="35"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="35"/>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
@@ -18935,7 +20250,7 @@
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
     </row>
-    <row r="37" spans="1:9" ht="6" customHeight="1">
+    <row r="37" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="28"/>
       <c r="B37" s="28"/>
       <c r="C37" s="28"/>
@@ -18945,7 +20260,7 @@
       <c r="G37" s="35"/>
       <c r="H37" s="35"/>
     </row>
-    <row r="38" spans="1:9" ht="14.25">
+    <row r="38" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="32" t="s">
         <v>50</v>
       </c>
@@ -18955,7 +20270,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
@@ -18965,7 +20280,7 @@
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B40" s="35"/>
       <c r="C40" s="35"/>
       <c r="D40" s="35"/>
@@ -18975,7 +20290,7 @@
       <c r="H40" s="35"/>
       <c r="I40" s="35"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B41" s="35"/>
       <c r="C41" s="35"/>
       <c r="D41" s="35"/>
@@ -18985,7 +20300,7 @@
       <c r="H41" s="35"/>
       <c r="I41" s="35"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B42" s="35"/>
       <c r="C42" s="35"/>
       <c r="D42" s="35"/>
@@ -18995,7 +20310,7 @@
       <c r="H42" s="35"/>
       <c r="I42" s="35"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B43" s="35"/>
       <c r="C43" s="35"/>
       <c r="D43" s="35"/>
@@ -19005,7 +20320,7 @@
       <c r="H43" s="35"/>
       <c r="I43" s="35"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B44" s="35"/>
       <c r="C44" s="35"/>
       <c r="D44" s="35"/>
@@ -19023,7 +20338,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -19041,7 +20356,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -19054,7 +20369,7 @@
     <col min="10" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -19065,61 +20380,61 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
-      <c r="B10" s="106" t="s">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="107" t="s">
+      <c r="C10" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="107" t="s">
+      <c r="D10" s="106" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="107" t="s">
+      <c r="E10" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="107" t="s">
+      <c r="F10" s="106" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="107" t="s">
+      <c r="G10" s="106" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="107" t="s">
+      <c r="H10" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="I10" s="108" t="s">
+      <c r="I10" s="107" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21">
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
       <c r="B11" s="64" t="s">
         <v>132</v>
@@ -19129,16 +20444,16 @@
       </c>
       <c r="D11" s="46"/>
       <c r="E11" s="46"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="127"/>
-    </row>
-    <row r="12" spans="1:9" ht="73.5">
+      <c r="F11" s="120"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="126"/>
+    </row>
+    <row r="12" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="B12" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="C12" s="120" t="s">
+      <c r="C12" s="119" t="s">
         <v>169</v>
       </c>
       <c r="D12" s="46" t="s">
@@ -19160,14 +20475,14 @@
         <v>44908</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="63">
+    <row r="13" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="B13" s="64"/>
       <c r="C13" s="46"/>
       <c r="D13" s="46"/>
       <c r="E13" s="57" t="s">
         <v>170</v>
       </c>
-      <c r="F13" s="122" t="s">
+      <c r="F13" s="121" t="s">
         <v>177</v>
       </c>
       <c r="G13" s="46" t="s">
@@ -19180,7 +20495,7 @@
         <v>44908</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="42">
+    <row r="14" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B14" s="64"/>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
@@ -19200,7 +20515,7 @@
         <v>44908</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="52.5">
+    <row r="15" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B15" s="64"/>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
@@ -19220,11 +20535,11 @@
         <v>44908</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="94.5">
+    <row r="16" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B16" s="64"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
-      <c r="E16" s="122" t="s">
+      <c r="E16" s="121" t="s">
         <v>135</v>
       </c>
       <c r="F16" s="46" t="s">
@@ -19240,11 +20555,11 @@
         <v>44908</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="94.5">
+    <row r="17" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B17" s="64"/>
       <c r="C17" s="46"/>
       <c r="D17" s="46"/>
-      <c r="E17" s="122" t="s">
+      <c r="E17" s="121" t="s">
         <v>136</v>
       </c>
       <c r="F17" s="46" t="s">
@@ -19260,143 +20575,143 @@
         <v>44908</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
-      <c r="B18" s="126"/>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B18" s="125"/>
       <c r="C18" s="46"/>
-      <c r="D18" s="122"/>
-      <c r="E18" s="122"/>
+      <c r="D18" s="121"/>
+      <c r="E18" s="121"/>
       <c r="F18" s="46"/>
       <c r="G18" s="46"/>
       <c r="H18" s="46"/>
       <c r="I18" s="76"/>
     </row>
-    <row r="19" spans="1:9">
-      <c r="B19" s="126"/>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B19" s="125"/>
       <c r="C19" s="46"/>
-      <c r="D19" s="122"/>
-      <c r="E19" s="122"/>
+      <c r="D19" s="121"/>
+      <c r="E19" s="121"/>
       <c r="F19" s="46"/>
       <c r="G19" s="46"/>
       <c r="H19" s="46"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="38"/>
-      <c r="B20" s="126"/>
+      <c r="B20" s="125"/>
       <c r="C20" s="46"/>
-      <c r="D20" s="122"/>
-      <c r="E20" s="122"/>
+      <c r="D20" s="121"/>
+      <c r="E20" s="121"/>
       <c r="F20" s="57"/>
       <c r="G20" s="57"/>
       <c r="H20" s="57"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="38"/>
-      <c r="B21" s="126"/>
+      <c r="B21" s="125"/>
       <c r="C21" s="46"/>
-      <c r="D21" s="122"/>
+      <c r="D21" s="121"/>
       <c r="E21" s="46"/>
       <c r="F21" s="57"/>
       <c r="G21" s="57"/>
       <c r="H21" s="57"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9">
-      <c r="B22" s="126"/>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B22" s="125"/>
       <c r="C22" s="46"/>
-      <c r="D22" s="122"/>
-      <c r="E22" s="122"/>
+      <c r="D22" s="121"/>
+      <c r="E22" s="121"/>
       <c r="F22" s="46"/>
       <c r="G22" s="46"/>
       <c r="H22" s="46"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="38"/>
-      <c r="B23" s="126"/>
+      <c r="B23" s="125"/>
       <c r="C23" s="46"/>
-      <c r="D23" s="122"/>
-      <c r="E23" s="122"/>
+      <c r="D23" s="121"/>
+      <c r="E23" s="121"/>
       <c r="F23" s="57"/>
       <c r="G23" s="57"/>
       <c r="H23" s="57"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="38"/>
-      <c r="B24" s="126"/>
+      <c r="B24" s="125"/>
       <c r="C24" s="46"/>
-      <c r="D24" s="122"/>
+      <c r="D24" s="121"/>
       <c r="E24" s="46"/>
       <c r="F24" s="57"/>
       <c r="G24" s="57"/>
       <c r="H24" s="57"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
-      <c r="B25" s="126"/>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B25" s="125"/>
       <c r="C25" s="46"/>
-      <c r="D25" s="122"/>
-      <c r="E25" s="122"/>
+      <c r="D25" s="121"/>
+      <c r="E25" s="121"/>
       <c r="F25" s="46"/>
       <c r="G25" s="46"/>
       <c r="H25" s="46"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
-      <c r="B26" s="126"/>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B26" s="125"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
-      <c r="E26" s="122"/>
+      <c r="E26" s="121"/>
       <c r="F26" s="46"/>
       <c r="G26" s="46"/>
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="64"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
-      <c r="E27" s="122"/>
+      <c r="E27" s="121"/>
       <c r="F27" s="46"/>
       <c r="G27" s="46"/>
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="64"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
-      <c r="E28" s="122"/>
+      <c r="E28" s="121"/>
       <c r="F28" s="46"/>
       <c r="G28" s="46"/>
       <c r="H28" s="46"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" s="64"/>
       <c r="C29" s="46"/>
       <c r="D29" s="46"/>
-      <c r="E29" s="122"/>
+      <c r="E29" s="121"/>
       <c r="F29" s="46"/>
       <c r="G29" s="46"/>
       <c r="H29" s="46"/>
       <c r="I29" s="76"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="64"/>
       <c r="C30" s="46"/>
       <c r="D30" s="46"/>
-      <c r="E30" s="122"/>
+      <c r="E30" s="121"/>
       <c r="F30" s="46"/>
       <c r="G30" s="46"/>
       <c r="H30" s="46"/>
       <c r="I30" s="76"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="64"/>
-      <c r="C31" s="120"/>
+      <c r="C31" s="119"/>
       <c r="D31" s="46"/>
       <c r="E31" s="51"/>
       <c r="F31" s="46"/>
@@ -19404,7 +20719,7 @@
       <c r="H31" s="46"/>
       <c r="I31" s="76"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="64"/>
       <c r="C32" s="46"/>
       <c r="D32" s="46"/>
@@ -19414,7 +20729,7 @@
       <c r="H32" s="46"/>
       <c r="I32" s="76"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B33" s="68"/>
       <c r="C33" s="46"/>
       <c r="D33" s="46"/>
@@ -19424,7 +20739,7 @@
       <c r="H33" s="46"/>
       <c r="I33" s="76"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B34" s="68"/>
       <c r="C34" s="46"/>
       <c r="D34" s="46"/>
@@ -19434,7 +20749,7 @@
       <c r="H34" s="46"/>
       <c r="I34" s="76"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="68"/>
       <c r="C35" s="46"/>
       <c r="D35" s="46"/>
@@ -19444,7 +20759,7 @@
       <c r="H35" s="46"/>
       <c r="I35" s="76"/>
     </row>
-    <row r="36" spans="1:9" ht="14.25" thickBot="1">
+    <row r="36" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B36" s="72"/>
       <c r="C36" s="47"/>
       <c r="D36" s="47"/>
@@ -19454,7 +20769,7 @@
       <c r="H36" s="47"/>
       <c r="I36" s="77"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
@@ -19464,7 +20779,7 @@
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
@@ -19474,7 +20789,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" spans="1:9" ht="6" customHeight="1">
+    <row r="39" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="28"/>
       <c r="B39" s="28"/>
       <c r="C39" s="28"/>
@@ -19484,7 +20799,7 @@
       <c r="G39" s="35"/>
       <c r="H39" s="35"/>
     </row>
-    <row r="40" spans="1:9" ht="14.25">
+    <row r="40" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A40" s="32" t="s">
         <v>50</v>
       </c>
@@ -19494,7 +20809,7 @@
       <c r="H40" s="35"/>
       <c r="I40" s="35"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B41" s="35"/>
       <c r="C41" s="35"/>
       <c r="D41" s="35"/>
@@ -19504,7 +20819,7 @@
       <c r="H41" s="35"/>
       <c r="I41" s="35"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B42" s="35"/>
       <c r="C42" s="35"/>
       <c r="D42" s="35"/>
@@ -19514,7 +20829,7 @@
       <c r="H42" s="35"/>
       <c r="I42" s="35"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B43" s="35"/>
       <c r="C43" s="35"/>
       <c r="D43" s="35"/>
@@ -19524,7 +20839,7 @@
       <c r="H43" s="35"/>
       <c r="I43" s="35"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B44" s="35"/>
       <c r="C44" s="35"/>
       <c r="D44" s="35"/>
@@ -19534,7 +20849,7 @@
       <c r="H44" s="35"/>
       <c r="I44" s="35"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B45" s="35"/>
       <c r="C45" s="35"/>
       <c r="D45" s="35"/>
@@ -19544,7 +20859,7 @@
       <c r="H45" s="35"/>
       <c r="I45" s="35"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B46" s="35"/>
       <c r="C46" s="35"/>
       <c r="D46" s="35"/>
@@ -19562,7 +20877,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
